--- a/docassemble/mlhframework/data/sources/michigan_court_info.xlsx
+++ b/docassemble/mlhframework/data/sources/michigan_court_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmilyKressMiller\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miadvocacyprog-my.sharepoint.com/personal/ekressmiller_lsscm_org/Documents/Attachments/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB18A39-4C30-40FE-B119-921DDEE9DD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{BEB18A39-4C30-40FE-B119-921DDEE9DD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{794B3396-21CC-47BB-8216-6F3FC0CBA174}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,6 +45,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>BH 11/18/22: In HotDocs, this corresponds to the County MC or Court county MC variable.</t>
@@ -58,6 +59,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>BH 11/18/22: In HotDocs, these options correspond to Temp county MC, which is assigned via the 'convert district courts CO' computation.
@@ -72,6 +74,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Per BH 11/18/22 notes: In HotDocs,  this corresponds to the 'Circuit' Merge text component (for circuit courts).
@@ -87,6 +90,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>note, per  BH 11/28/22 notes, for district courts with multiple courts in a county, these are in the respective MC variables, such as Berrien MC, Kent MC, Wayne MC, etc.</t>
@@ -100,6 +104,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>BH 11/18/22: In HotDocs, for circ courts,this corresponds 
@@ -117,6 +122,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">BH 11/18/22: In HotDocs, this corresponds to 'Circuit Address3' Merge text component.
@@ -131,6 +137,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>BH 11/18/22: In HotDocs, this corresponds to 
@@ -147,6 +154,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>BH 11/18/22: In HotDocs, this corresponds to 
@@ -164,6 +172,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>BH 11/18/22: In HotDocs, this corresponds to the
@@ -179,6 +188,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>BH 11/18/22: In HotDocs, this corresponds to the 'Circuit Fax' Merge text component.
@@ -193,6 +203,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>EKM 7/5/23: our programming does not currently require this, but I was told it can be useful as an option when pulling from the spreadsheet.</t>
@@ -206,6 +217,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>EKM 7/5/23:  can include latitude and longitude if we want to incorporate mapping features, but I haven't gotten into that yet.</t>
@@ -219,6 +231,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Add columns as needed to add more information to courts. (For example, could add a "description" of the court saying what kind of cases it hears or what area it covers.) Column names should NOT have special characters or spaces.</t>
@@ -230,7 +243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3615" uniqueCount="1705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3618" uniqueCount="1708">
   <si>
     <t>address_county</t>
   </si>
@@ -5345,13 +5358,22 @@
   </si>
   <si>
     <t>West Olive, MI  49460</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>alternative_label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5363,6 +5385,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5370,26 +5393,45 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5409,7 +5451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -5417,11 +5459,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5431,6 +5488,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5446,6 +5509,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5649,11 +5716,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD409"/>
+  <dimension ref="A1:AD1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72:XFD72"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5673,7 +5740,7 @@
     <col min="18" max="18" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5728,7 +5795,9 @@
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1"/>
+      <c r="S1" s="7" t="s">
+        <v>1707</v>
+      </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -5741,7 +5810,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -5778,8 +5847,9 @@
         <v>48740</v>
       </c>
       <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -5813,8 +5883,9 @@
         <v>49862</v>
       </c>
       <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -5851,8 +5922,9 @@
         <v>49010</v>
       </c>
       <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -5889,8 +5961,9 @@
         <v>49707</v>
       </c>
       <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="8"/>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
@@ -5930,8 +6003,9 @@
         <v>49615</v>
       </c>
       <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -5968,8 +6042,9 @@
         <v>48658</v>
       </c>
       <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>60</v>
       </c>
@@ -6006,8 +6081,9 @@
         <v>49946</v>
       </c>
       <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>67</v>
       </c>
@@ -6044,8 +6120,9 @@
         <v>49058</v>
       </c>
       <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
@@ -6079,8 +6156,9 @@
         <v>48708</v>
       </c>
       <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>80</v>
       </c>
@@ -6114,8 +6192,9 @@
         <v>49617</v>
       </c>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>86</v>
       </c>
@@ -6152,8 +6231,9 @@
         <v>49085</v>
       </c>
       <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>93</v>
       </c>
@@ -6190,8 +6270,9 @@
         <v>49036</v>
       </c>
       <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>100</v>
       </c>
@@ -6228,8 +6309,9 @@
         <v>49014</v>
       </c>
       <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>107</v>
       </c>
@@ -6266,8 +6348,9 @@
         <v>49031</v>
       </c>
       <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>114</v>
       </c>
@@ -6304,8 +6387,9 @@
         <v>49720</v>
       </c>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>121</v>
       </c>
@@ -6345,8 +6429,9 @@
         <v>49721</v>
       </c>
       <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>129</v>
       </c>
@@ -6383,8 +6468,9 @@
         <v>49783</v>
       </c>
       <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>136</v>
       </c>
@@ -6421,8 +6507,9 @@
         <v>48625</v>
       </c>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>143</v>
       </c>
@@ -6462,8 +6549,9 @@
         <v>48879</v>
       </c>
       <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>151</v>
       </c>
@@ -6500,8 +6588,9 @@
         <v>49738</v>
       </c>
       <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>158</v>
       </c>
@@ -6538,8 +6627,9 @@
         <v>49829</v>
       </c>
       <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>165</v>
       </c>
@@ -6579,8 +6669,9 @@
         <v>49801</v>
       </c>
       <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S23" s="8"/>
+    </row>
+    <row r="24" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>173</v>
       </c>
@@ -6617,8 +6708,9 @@
         <v>48813</v>
       </c>
       <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S24" s="8"/>
+    </row>
+    <row r="25" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>180</v>
       </c>
@@ -6655,8 +6747,9 @@
         <v>49770</v>
       </c>
       <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S25" s="8"/>
+    </row>
+    <row r="26" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>187</v>
       </c>
@@ -6693,8 +6786,9 @@
         <v>48502</v>
       </c>
       <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S26" s="8"/>
+    </row>
+    <row r="27" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>194</v>
       </c>
@@ -6731,8 +6825,9 @@
         <v>48624</v>
       </c>
       <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S27" s="8"/>
+    </row>
+    <row r="28" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>198</v>
       </c>
@@ -6772,8 +6867,9 @@
         <v>49911</v>
       </c>
       <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S28" s="8"/>
+    </row>
+    <row r="29" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>206</v>
       </c>
@@ -6810,8 +6906,9 @@
         <v>49684</v>
       </c>
       <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S29" s="8"/>
+    </row>
+    <row r="30" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>211</v>
       </c>
@@ -6851,8 +6948,9 @@
         <v>48847</v>
       </c>
       <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S30" s="8"/>
+    </row>
+    <row r="31" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>217</v>
       </c>
@@ -6889,8 +6987,9 @@
         <v>49242</v>
       </c>
       <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S31" s="8"/>
+    </row>
+    <row r="32" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>223</v>
       </c>
@@ -6927,8 +7026,9 @@
         <v>49931</v>
       </c>
       <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S32" s="8"/>
+    </row>
+    <row r="33" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>228</v>
       </c>
@@ -6965,8 +7065,9 @@
         <v>48413</v>
       </c>
       <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S33" s="8"/>
+    </row>
+    <row r="34" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>235</v>
       </c>
@@ -7006,8 +7107,9 @@
         <v>48901</v>
       </c>
       <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S34" s="8"/>
+    </row>
+    <row r="35" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>243</v>
       </c>
@@ -7044,8 +7146,9 @@
         <v>48846</v>
       </c>
       <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S35" s="8"/>
+    </row>
+    <row r="36" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>250</v>
       </c>
@@ -7088,8 +7191,9 @@
         <v>48764</v>
       </c>
       <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S36" s="8"/>
+    </row>
+    <row r="37" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>257</v>
       </c>
@@ -7126,8 +7230,9 @@
         <v>49920</v>
       </c>
       <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S37" s="8"/>
+    </row>
+    <row r="38" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>262</v>
       </c>
@@ -7164,8 +7269,9 @@
         <v>48858</v>
       </c>
       <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S38" s="8"/>
+    </row>
+    <row r="39" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>269</v>
       </c>
@@ -7202,8 +7308,9 @@
         <v>49201</v>
       </c>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S39" s="8"/>
+    </row>
+    <row r="40" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>276</v>
       </c>
@@ -7240,8 +7347,9 @@
         <v>49048</v>
       </c>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S40" s="8"/>
+    </row>
+    <row r="41" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>283</v>
       </c>
@@ -7281,8 +7389,9 @@
         <v>49646</v>
       </c>
       <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S41" s="8"/>
+    </row>
+    <row r="42" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>289</v>
       </c>
@@ -7319,8 +7428,9 @@
         <v>49503</v>
       </c>
       <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S42" s="8"/>
+    </row>
+    <row r="43" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>296</v>
       </c>
@@ -7357,8 +7467,9 @@
         <v>49950</v>
       </c>
       <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S43" s="8"/>
+    </row>
+    <row r="44" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>301</v>
       </c>
@@ -7395,8 +7506,9 @@
         <v>49304</v>
       </c>
       <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S44" s="8"/>
+    </row>
+    <row r="45" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>308</v>
       </c>
@@ -7433,8 +7545,9 @@
         <v>48446</v>
       </c>
       <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S45" s="8"/>
+    </row>
+    <row r="46" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>315</v>
       </c>
@@ -7471,8 +7584,9 @@
         <v>49682</v>
       </c>
       <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S46" s="8"/>
+    </row>
+    <row r="47" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>320</v>
       </c>
@@ -7509,8 +7623,9 @@
         <v>49221</v>
       </c>
       <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S47" s="8"/>
+    </row>
+    <row r="48" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>327</v>
       </c>
@@ -7547,8 +7662,9 @@
         <v>48843</v>
       </c>
       <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S48" s="8"/>
+    </row>
+    <row r="49" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>334</v>
       </c>
@@ -7585,8 +7701,9 @@
         <v>49868</v>
       </c>
       <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S49" s="8"/>
+    </row>
+    <row r="50" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>339</v>
       </c>
@@ -7623,8 +7740,9 @@
         <v>49781</v>
       </c>
       <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S50" s="8"/>
+    </row>
+    <row r="51" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>344</v>
       </c>
@@ -7661,8 +7779,9 @@
         <v>48043</v>
       </c>
       <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S51" s="8"/>
+    </row>
+    <row r="52" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>351</v>
       </c>
@@ -7699,8 +7818,9 @@
         <v>49660</v>
       </c>
       <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S52" s="8"/>
+    </row>
+    <row r="53" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>356</v>
       </c>
@@ -7740,8 +7860,9 @@
         <v>49855</v>
       </c>
       <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S53" s="8"/>
+    </row>
+    <row r="54" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>363</v>
       </c>
@@ -7778,8 +7899,9 @@
         <v>49431</v>
       </c>
       <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S54" s="8"/>
+    </row>
+    <row r="55" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>370</v>
       </c>
@@ -7816,8 +7938,9 @@
         <v>49307</v>
       </c>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S55" s="8"/>
+    </row>
+    <row r="56" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>377</v>
       </c>
@@ -7854,8 +7977,9 @@
         <v>49858</v>
       </c>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S56" s="8"/>
+    </row>
+    <row r="57" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>382</v>
       </c>
@@ -7892,8 +8016,9 @@
         <v>48640</v>
       </c>
       <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S57" s="8"/>
+    </row>
+    <row r="58" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>389</v>
       </c>
@@ -7933,8 +8058,9 @@
         <v>49651</v>
       </c>
       <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S58" s="8"/>
+    </row>
+    <row r="59" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>397</v>
       </c>
@@ -7971,8 +8097,9 @@
         <v>48161</v>
       </c>
       <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S59" s="8"/>
+    </row>
+    <row r="60" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>404</v>
       </c>
@@ -8012,8 +8139,9 @@
         <v>48888</v>
       </c>
       <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S60" s="8"/>
+    </row>
+    <row r="61" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>410</v>
       </c>
@@ -8053,8 +8181,9 @@
         <v>49709</v>
       </c>
       <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S61" s="8"/>
+    </row>
+    <row r="62" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>416</v>
       </c>
@@ -8091,8 +8220,9 @@
         <v>49442</v>
       </c>
       <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S62" s="8"/>
+    </row>
+    <row r="63" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>423</v>
       </c>
@@ -8135,8 +8265,9 @@
         <v>49349</v>
       </c>
       <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S63" s="8"/>
+    </row>
+    <row r="64" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>430</v>
       </c>
@@ -8173,8 +8304,9 @@
         <v>48341</v>
       </c>
       <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S64" s="8"/>
+    </row>
+    <row r="65" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>437</v>
       </c>
@@ -8214,8 +8346,9 @@
         <v>49420</v>
       </c>
       <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S65" s="8"/>
+    </row>
+    <row r="66" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>443</v>
       </c>
@@ -8252,8 +8385,9 @@
         <v>48661</v>
       </c>
       <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S66" s="8"/>
+    </row>
+    <row r="67" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>450</v>
       </c>
@@ -8290,8 +8424,9 @@
         <v>49953</v>
       </c>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S67" s="8"/>
+    </row>
+    <row r="68" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>455</v>
       </c>
@@ -8328,8 +8463,9 @@
         <v>49677</v>
       </c>
       <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S68" s="8"/>
+    </row>
+    <row r="69" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>460</v>
       </c>
@@ -8366,8 +8502,9 @@
         <v>48647</v>
       </c>
       <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S69" s="8"/>
+    </row>
+    <row r="70" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>465</v>
       </c>
@@ -8401,8 +8538,9 @@
         <v>49735</v>
       </c>
       <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S70" s="8"/>
+    </row>
+    <row r="71" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>469</v>
       </c>
@@ -8413,76 +8551,82 @@
         <v>470</v>
       </c>
       <c r="E71" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>1704</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="6" t="s">
+        <v>1703</v>
+      </c>
+      <c r="L71" s="3" t="str">
+        <f t="shared" ref="L71" si="2">MID(H71, 1, FIND(",", H71)-1)</f>
+        <v>West Olive</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N71" s="3" t="str">
+        <f t="shared" ref="N71" si="3">MID(H71, FIND(", MI", H71) + 6, 100)</f>
+        <v>49460</v>
+      </c>
+      <c r="O71" s="3"/>
+      <c r="S71" s="8" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>1699</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H72" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="I72" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="J72" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="L71" s="3" t="str">
+      <c r="L72" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Grand Haven</v>
       </c>
-      <c r="M71" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N71" s="3" t="str">
+      <c r="M72" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N72" s="3" t="str">
         <f t="shared" si="1"/>
         <v>49417</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>1700</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>1701</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>1702</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>1704</v>
-      </c>
-      <c r="I72" s="3"/>
-      <c r="J72" s="6" t="s">
-        <v>1703</v>
-      </c>
-      <c r="L72" s="3" t="str">
-        <f t="shared" ref="L72" si="2">MID(H72, 1, FIND(",", H72)-1)</f>
-        <v>West Olive</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N72" s="3" t="str">
-        <f t="shared" ref="N72" si="3">MID(H72, FIND(", MI", H72) + 6, 100)</f>
-        <v>49460</v>
-      </c>
       <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S72" s="8" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>474</v>
       </c>
@@ -8519,8 +8663,9 @@
         <v>49779</v>
       </c>
       <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S73" s="8"/>
+    </row>
+    <row r="74" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>479</v>
       </c>
@@ -8557,8 +8702,9 @@
         <v>48653</v>
       </c>
       <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S74" s="8"/>
+    </row>
+    <row r="75" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>484</v>
       </c>
@@ -8595,8 +8741,9 @@
         <v>48602</v>
       </c>
       <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S75" s="8"/>
+    </row>
+    <row r="76" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>490</v>
       </c>
@@ -8636,8 +8783,9 @@
         <v>48471</v>
       </c>
       <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S76" s="8"/>
+    </row>
+    <row r="77" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>498</v>
       </c>
@@ -8677,8 +8825,9 @@
         <v>49854</v>
       </c>
       <c r="O77" s="3"/>
-    </row>
-    <row r="78" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S77" s="8"/>
+    </row>
+    <row r="78" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>504</v>
       </c>
@@ -8712,8 +8861,9 @@
         <v>48817</v>
       </c>
       <c r="O78" s="3"/>
-    </row>
-    <row r="79" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S78" s="8"/>
+    </row>
+    <row r="79" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>510</v>
       </c>
@@ -8750,8 +8900,9 @@
         <v>48060</v>
       </c>
       <c r="O79" s="3"/>
-    </row>
-    <row r="80" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S79" s="8"/>
+    </row>
+    <row r="80" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>517</v>
       </c>
@@ -8791,8 +8942,9 @@
         <v>49032</v>
       </c>
       <c r="O80" s="3"/>
-    </row>
-    <row r="81" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S80" s="8"/>
+    </row>
+    <row r="81" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>525</v>
       </c>
@@ -8829,8 +8981,9 @@
         <v>48723</v>
       </c>
       <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S81" s="8"/>
+    </row>
+    <row r="82" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>532</v>
       </c>
@@ -8867,8 +9020,9 @@
         <v>49079</v>
       </c>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S82" s="8"/>
+    </row>
+    <row r="83" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>539</v>
       </c>
@@ -8905,8 +9059,9 @@
         <v>48107</v>
       </c>
       <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S83" s="8"/>
+    </row>
+    <row r="84" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>545</v>
       </c>
@@ -8943,8 +9098,9 @@
         <v>48226</v>
       </c>
       <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S84" s="8"/>
+    </row>
+    <row r="85" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>552</v>
       </c>
@@ -8981,8 +9137,9 @@
         <v>49601</v>
       </c>
       <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S85" s="8"/>
+    </row>
+    <row r="86" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>18</v>
       </c>
@@ -9021,8 +9178,9 @@
         <f t="shared" ref="N86:N340" si="4">MID(H86, FIND(", MI", H86) + 5, 100)</f>
         <v>48740</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S86" s="8"/>
+    </row>
+    <row r="87" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>27</v>
       </c>
@@ -9058,8 +9216,9 @@
         <f t="shared" si="4"/>
         <v>49862</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S87" s="8"/>
+    </row>
+    <row r="88" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>33</v>
       </c>
@@ -9095,8 +9254,9 @@
         <f t="shared" si="4"/>
         <v>49010</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S88" s="8"/>
+    </row>
+    <row r="89" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>40</v>
       </c>
@@ -9132,8 +9292,9 @@
         <f t="shared" si="4"/>
         <v>49707</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S89" s="8"/>
+    </row>
+    <row r="90" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>47</v>
       </c>
@@ -9172,8 +9333,9 @@
         <f t="shared" si="4"/>
         <v>49615</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S90" s="8"/>
+    </row>
+    <row r="91" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>55</v>
       </c>
@@ -9212,8 +9374,9 @@
         <f t="shared" si="4"/>
         <v>48658</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S91" s="8"/>
+    </row>
+    <row r="92" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>60</v>
       </c>
@@ -9249,8 +9412,9 @@
         <f t="shared" si="4"/>
         <v>49946</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S92" s="8"/>
+    </row>
+    <row r="93" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>67</v>
       </c>
@@ -9286,8 +9450,9 @@
         <f t="shared" si="4"/>
         <v>49058</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S93" s="8"/>
+    </row>
+    <row r="94" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>74</v>
       </c>
@@ -9323,8 +9488,9 @@
         <f t="shared" si="4"/>
         <v>48708</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S94" s="8"/>
+    </row>
+    <row r="95" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>80</v>
       </c>
@@ -9363,8 +9529,9 @@
         <f t="shared" si="4"/>
         <v>49617</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S95" s="8"/>
+    </row>
+    <row r="96" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>86</v>
       </c>
@@ -9400,8 +9567,9 @@
         <f t="shared" si="4"/>
         <v>49120</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S96" s="8"/>
+    </row>
+    <row r="97" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>86</v>
       </c>
@@ -9437,8 +9605,9 @@
         <f t="shared" si="4"/>
         <v>49085</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S97" s="8"/>
+    </row>
+    <row r="98" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>93</v>
       </c>
@@ -9474,8 +9643,9 @@
         <f t="shared" si="4"/>
         <v>49036</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S98" s="8"/>
+    </row>
+    <row r="99" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>100</v>
       </c>
@@ -9511,8 +9681,9 @@
         <f t="shared" si="4"/>
         <v>49014</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S99" s="8"/>
+    </row>
+    <row r="100" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>107</v>
       </c>
@@ -9548,8 +9719,9 @@
         <f t="shared" si="4"/>
         <v>49031</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S100" s="8"/>
+    </row>
+    <row r="101" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>114</v>
       </c>
@@ -9585,8 +9757,9 @@
         <f t="shared" si="4"/>
         <v>49720</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S101" s="8"/>
+    </row>
+    <row r="102" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>121</v>
       </c>
@@ -9625,8 +9798,9 @@
         <f t="shared" si="4"/>
         <v>49721</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S102" s="8"/>
+    </row>
+    <row r="103" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>129</v>
       </c>
@@ -9662,8 +9836,9 @@
         <f t="shared" si="4"/>
         <v>49783</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S103" s="8"/>
+    </row>
+    <row r="104" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>136</v>
       </c>
@@ -9699,8 +9874,9 @@
         <f t="shared" si="4"/>
         <v>48625</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S104" s="8"/>
+    </row>
+    <row r="105" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>143</v>
       </c>
@@ -9736,8 +9912,9 @@
         <f t="shared" si="4"/>
         <v>48879</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S105" s="8"/>
+    </row>
+    <row r="106" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>151</v>
       </c>
@@ -9773,8 +9950,9 @@
         <f t="shared" si="4"/>
         <v>49738</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S106" s="8"/>
+    </row>
+    <row r="107" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>158</v>
       </c>
@@ -9810,8 +9988,9 @@
         <f t="shared" si="4"/>
         <v>49829</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S107" s="8"/>
+    </row>
+    <row r="108" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>165</v>
       </c>
@@ -9850,8 +10029,9 @@
         <f t="shared" si="4"/>
         <v>49801</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S108" s="8"/>
+    </row>
+    <row r="109" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>173</v>
       </c>
@@ -9887,8 +10067,9 @@
         <f t="shared" si="4"/>
         <v>48813</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S109" s="8"/>
+    </row>
+    <row r="110" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>180</v>
       </c>
@@ -9924,8 +10105,9 @@
         <f t="shared" si="4"/>
         <v>49770</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S110" s="8"/>
+    </row>
+    <row r="111" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>187</v>
       </c>
@@ -9961,8 +10143,9 @@
         <f t="shared" si="4"/>
         <v>48502</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S111" s="8"/>
+    </row>
+    <row r="112" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>187</v>
       </c>
@@ -9998,8 +10181,9 @@
         <f t="shared" si="4"/>
         <v>48433</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S112" s="8"/>
+    </row>
+    <row r="113" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>187</v>
       </c>
@@ -10035,8 +10219,9 @@
         <f t="shared" si="4"/>
         <v>48529</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S113" s="8"/>
+    </row>
+    <row r="114" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>187</v>
       </c>
@@ -10072,8 +10257,9 @@
         <f t="shared" si="4"/>
         <v>48423</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S114" s="8"/>
+    </row>
+    <row r="115" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>187</v>
       </c>
@@ -10109,8 +10295,9 @@
         <f t="shared" si="4"/>
         <v>48458</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S115" s="8"/>
+    </row>
+    <row r="116" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>187</v>
       </c>
@@ -10146,8 +10333,9 @@
         <f t="shared" si="4"/>
         <v>48430</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S116" s="8"/>
+    </row>
+    <row r="117" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>187</v>
       </c>
@@ -10183,8 +10371,9 @@
         <f t="shared" si="4"/>
         <v>48439</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S117" s="8"/>
+    </row>
+    <row r="118" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>187</v>
       </c>
@@ -10220,8 +10409,9 @@
         <f t="shared" si="4"/>
         <v>48502</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S118" s="8"/>
+    </row>
+    <row r="119" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>194</v>
       </c>
@@ -10257,8 +10447,9 @@
         <f t="shared" si="4"/>
         <v>48624</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S119" s="8"/>
+    </row>
+    <row r="120" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>198</v>
       </c>
@@ -10294,8 +10485,9 @@
         <f t="shared" si="4"/>
         <v>49911</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S120" s="8"/>
+    </row>
+    <row r="121" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>206</v>
       </c>
@@ -10331,8 +10523,9 @@
         <f t="shared" si="4"/>
         <v>49684</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S121" s="8"/>
+    </row>
+    <row r="122" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>211</v>
       </c>
@@ -10368,8 +10561,9 @@
         <f t="shared" si="4"/>
         <v>48847</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S122" s="8"/>
+    </row>
+    <row r="123" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>217</v>
       </c>
@@ -10405,8 +10599,9 @@
         <f t="shared" si="4"/>
         <v>49242</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S123" s="8"/>
+    </row>
+    <row r="124" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>223</v>
       </c>
@@ -10442,8 +10637,9 @@
         <f t="shared" si="4"/>
         <v>49931</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S124" s="8"/>
+    </row>
+    <row r="125" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>228</v>
       </c>
@@ -10479,8 +10675,9 @@
         <f t="shared" si="4"/>
         <v>48413</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S125" s="8"/>
+    </row>
+    <row r="126" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>235</v>
       </c>
@@ -10516,8 +10713,9 @@
         <f t="shared" si="4"/>
         <v>48933</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S126" s="8"/>
+    </row>
+    <row r="127" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>235</v>
       </c>
@@ -10553,8 +10751,9 @@
         <f t="shared" si="4"/>
         <v>48823</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S127" s="8"/>
+    </row>
+    <row r="128" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>235</v>
       </c>
@@ -10590,8 +10789,9 @@
         <f t="shared" si="4"/>
         <v>48854</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S128" s="8"/>
+    </row>
+    <row r="129" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>243</v>
       </c>
@@ -10627,8 +10827,9 @@
         <f t="shared" si="4"/>
         <v>48846</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S129" s="8"/>
+    </row>
+    <row r="130" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>250</v>
       </c>
@@ -10667,8 +10868,9 @@
         <f t="shared" si="4"/>
         <v>48764</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S130" s="8"/>
+    </row>
+    <row r="131" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>257</v>
       </c>
@@ -10704,8 +10906,9 @@
         <f t="shared" si="4"/>
         <v>49920</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S131" s="8"/>
+    </row>
+    <row r="132" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>262</v>
       </c>
@@ -10741,8 +10944,9 @@
         <f t="shared" si="4"/>
         <v>48858</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S132" s="8"/>
+    </row>
+    <row r="133" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>269</v>
       </c>
@@ -10778,8 +10982,9 @@
         <f t="shared" si="4"/>
         <v>49201</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S133" s="8"/>
+    </row>
+    <row r="134" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>276</v>
       </c>
@@ -10815,8 +11020,9 @@
         <f t="shared" si="4"/>
         <v>49007</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S134" s="8"/>
+    </row>
+    <row r="135" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>283</v>
       </c>
@@ -10855,8 +11061,9 @@
         <f t="shared" si="4"/>
         <v>49646</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S135" s="8"/>
+    </row>
+    <row r="136" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>289</v>
       </c>
@@ -10892,8 +11099,9 @@
         <f t="shared" si="4"/>
         <v>49418</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S136" s="8"/>
+    </row>
+    <row r="137" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>289</v>
       </c>
@@ -10929,8 +11137,9 @@
         <f t="shared" si="4"/>
         <v>49534</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S137" s="8"/>
+    </row>
+    <row r="138" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>289</v>
       </c>
@@ -10966,8 +11175,9 @@
         <f t="shared" si="4"/>
         <v>49503</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S138" s="8"/>
+    </row>
+    <row r="139" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>289</v>
       </c>
@@ -11003,8 +11213,9 @@
         <f t="shared" si="4"/>
         <v>49509</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S139" s="8"/>
+    </row>
+    <row r="140" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>289</v>
       </c>
@@ -11040,8 +11251,9 @@
         <f t="shared" si="4"/>
         <v>49512</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S140" s="8"/>
+    </row>
+    <row r="141" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>289</v>
       </c>
@@ -11077,8 +11289,9 @@
         <f t="shared" si="4"/>
         <v>49525-7075</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S141" s="8"/>
+    </row>
+    <row r="142" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>296</v>
       </c>
@@ -11114,8 +11327,9 @@
         <f t="shared" si="4"/>
         <v>49950</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S142" s="8"/>
+    </row>
+    <row r="143" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>301</v>
       </c>
@@ -11154,8 +11368,9 @@
         <f t="shared" si="4"/>
         <v>49304</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S143" s="8"/>
+    </row>
+    <row r="144" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>308</v>
       </c>
@@ -11191,8 +11406,9 @@
         <f t="shared" si="4"/>
         <v>48446</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S144" s="8"/>
+    </row>
+    <row r="145" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>315</v>
       </c>
@@ -11228,8 +11444,9 @@
         <f t="shared" si="4"/>
         <v>49682</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S145" s="8"/>
+    </row>
+    <row r="146" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>320</v>
       </c>
@@ -11265,8 +11482,9 @@
         <f t="shared" si="4"/>
         <v>49221</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S146" s="8"/>
+    </row>
+    <row r="147" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>327</v>
       </c>
@@ -11302,8 +11520,9 @@
         <f t="shared" si="4"/>
         <v>48843</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S147" s="8"/>
+    </row>
+    <row r="148" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>334</v>
       </c>
@@ -11339,8 +11558,9 @@
         <f t="shared" si="4"/>
         <v>49868</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S148" s="8"/>
+    </row>
+    <row r="149" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>339</v>
       </c>
@@ -11376,8 +11596,9 @@
         <f t="shared" si="4"/>
         <v>49781</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S149" s="8"/>
+    </row>
+    <row r="150" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>344</v>
       </c>
@@ -11413,8 +11634,9 @@
         <f t="shared" si="4"/>
         <v>48015</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S150" s="8"/>
+    </row>
+    <row r="151" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>344</v>
       </c>
@@ -11450,8 +11672,9 @@
         <f t="shared" si="4"/>
         <v>48093</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S151" s="8"/>
+    </row>
+    <row r="152" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>344</v>
       </c>
@@ -11487,8 +11710,9 @@
         <f t="shared" si="4"/>
         <v>48021</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S152" s="8"/>
+    </row>
+    <row r="153" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>344</v>
       </c>
@@ -11527,8 +11751,9 @@
         <f t="shared" si="4"/>
         <v>48026</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S153" s="8"/>
+    </row>
+    <row r="154" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>344</v>
       </c>
@@ -11564,8 +11789,9 @@
         <f t="shared" si="4"/>
         <v>48066</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S154" s="8"/>
+    </row>
+    <row r="155" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>344</v>
       </c>
@@ -11601,8 +11827,9 @@
         <f t="shared" si="4"/>
         <v>48081</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S155" s="8"/>
+    </row>
+    <row r="156" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>344</v>
       </c>
@@ -11638,8 +11865,9 @@
         <f t="shared" si="4"/>
         <v>48316</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S156" s="8"/>
+    </row>
+    <row r="157" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>344</v>
       </c>
@@ -11675,8 +11903,9 @@
         <f t="shared" si="4"/>
         <v>48313</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S157" s="8"/>
+    </row>
+    <row r="158" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>344</v>
       </c>
@@ -11712,8 +11941,9 @@
         <f t="shared" si="4"/>
         <v>48036</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S158" s="8"/>
+    </row>
+    <row r="159" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>344</v>
       </c>
@@ -11752,8 +11982,9 @@
         <f t="shared" si="4"/>
         <v>48065</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S159" s="8"/>
+    </row>
+    <row r="160" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>344</v>
       </c>
@@ -11789,8 +12020,9 @@
         <f t="shared" si="4"/>
         <v>48047</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S160" s="8"/>
+    </row>
+    <row r="161" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>351</v>
       </c>
@@ -11826,8 +12058,9 @@
         <f t="shared" si="4"/>
         <v>49660</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S161" s="8"/>
+    </row>
+    <row r="162" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>356</v>
       </c>
@@ -11863,8 +12096,9 @@
         <f t="shared" si="4"/>
         <v>49849</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S162" s="8"/>
+    </row>
+    <row r="163" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>356</v>
       </c>
@@ -11900,8 +12134,9 @@
         <f t="shared" si="4"/>
         <v>49855</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S163" s="8"/>
+    </row>
+    <row r="164" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>363</v>
       </c>
@@ -11937,8 +12172,9 @@
         <f t="shared" si="4"/>
         <v>49431</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S164" s="8"/>
+    </row>
+    <row r="165" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>370</v>
       </c>
@@ -11974,8 +12210,9 @@
         <f t="shared" si="4"/>
         <v>49307</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S165" s="8"/>
+    </row>
+    <row r="166" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>377</v>
       </c>
@@ -12011,8 +12248,9 @@
         <f t="shared" si="4"/>
         <v>49858</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S166" s="8"/>
+    </row>
+    <row r="167" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>382</v>
       </c>
@@ -12048,8 +12286,9 @@
         <f t="shared" si="4"/>
         <v>48640</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S167" s="8"/>
+    </row>
+    <row r="168" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>389</v>
       </c>
@@ -12088,8 +12327,9 @@
         <f t="shared" si="4"/>
         <v>49651</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S168" s="8"/>
+    </row>
+    <row r="169" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>397</v>
       </c>
@@ -12125,8 +12365,9 @@
         <f t="shared" si="4"/>
         <v>48133</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S169" s="8"/>
+    </row>
+    <row r="170" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>397</v>
       </c>
@@ -12162,8 +12403,9 @@
         <f t="shared" si="4"/>
         <v>48161</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S170" s="8"/>
+    </row>
+    <row r="171" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>404</v>
       </c>
@@ -12199,8 +12441,9 @@
         <f t="shared" si="4"/>
         <v>48888</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S171" s="8"/>
+    </row>
+    <row r="172" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>410</v>
       </c>
@@ -12239,8 +12482,9 @@
         <f t="shared" si="4"/>
         <v>49709</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S172" s="8"/>
+    </row>
+    <row r="173" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>416</v>
       </c>
@@ -12276,8 +12520,9 @@
         <f t="shared" si="4"/>
         <v>49442</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S173" s="8"/>
+    </row>
+    <row r="174" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>423</v>
       </c>
@@ -12316,8 +12561,9 @@
         <f t="shared" si="4"/>
         <v>49349</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S174" s="8"/>
+    </row>
+    <row r="175" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>430</v>
       </c>
@@ -12353,8 +12599,9 @@
         <f t="shared" si="4"/>
         <v>48220</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S175" s="8"/>
+    </row>
+    <row r="176" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>430</v>
       </c>
@@ -12390,8 +12637,9 @@
         <f t="shared" si="4"/>
         <v>48030</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S176" s="8"/>
+    </row>
+    <row r="177" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>430</v>
       </c>
@@ -12427,8 +12675,9 @@
         <f t="shared" si="4"/>
         <v>48071</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S177" s="8"/>
+    </row>
+    <row r="178" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>430</v>
       </c>
@@ -12467,8 +12716,9 @@
         <f t="shared" si="4"/>
         <v>48068</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S178" s="8"/>
+    </row>
+    <row r="179" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>430</v>
       </c>
@@ -12504,8 +12754,9 @@
         <f t="shared" si="4"/>
         <v>48237</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S179" s="8"/>
+    </row>
+    <row r="180" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>430</v>
       </c>
@@ -12544,8 +12795,9 @@
         <f t="shared" si="4"/>
         <v>48076</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S180" s="8"/>
+    </row>
+    <row r="181" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>430</v>
       </c>
@@ -12581,8 +12833,9 @@
         <f t="shared" si="4"/>
         <v>48336</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S181" s="8"/>
+    </row>
+    <row r="182" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>430</v>
       </c>
@@ -12621,8 +12874,9 @@
         <f t="shared" si="4"/>
         <v>48302</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S182" s="8"/>
+    </row>
+    <row r="183" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>430</v>
       </c>
@@ -12658,8 +12912,9 @@
         <f t="shared" si="4"/>
         <v>48342</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S183" s="8"/>
+    </row>
+    <row r="184" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>430</v>
       </c>
@@ -12695,8 +12950,9 @@
         <f t="shared" si="4"/>
         <v>48329</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S184" s="8"/>
+    </row>
+    <row r="185" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>430</v>
       </c>
@@ -12732,8 +12988,9 @@
         <f t="shared" si="4"/>
         <v>48374</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S185" s="8"/>
+    </row>
+    <row r="186" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>430</v>
       </c>
@@ -12769,8 +13026,9 @@
         <f t="shared" si="4"/>
         <v>48346</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S186" s="8"/>
+    </row>
+    <row r="187" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>430</v>
       </c>
@@ -12806,8 +13064,9 @@
         <f t="shared" si="4"/>
         <v>48307</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S187" s="8"/>
+    </row>
+    <row r="188" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>430</v>
       </c>
@@ -12843,8 +13102,9 @@
         <f t="shared" si="4"/>
         <v>48084</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S188" s="8"/>
+    </row>
+    <row r="189" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>437</v>
       </c>
@@ -12883,8 +13143,9 @@
         <f t="shared" si="4"/>
         <v>49420</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S189" s="8"/>
+    </row>
+    <row r="190" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>443</v>
       </c>
@@ -12923,8 +13184,9 @@
         <f t="shared" si="4"/>
         <v>48661</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S190" s="8"/>
+    </row>
+    <row r="191" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>450</v>
       </c>
@@ -12960,8 +13222,9 @@
         <f t="shared" si="4"/>
         <v>49953</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S191" s="8"/>
+    </row>
+    <row r="192" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>455</v>
       </c>
@@ -12997,8 +13260,9 @@
         <f t="shared" si="4"/>
         <v>49677</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S192" s="8"/>
+    </row>
+    <row r="193" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>460</v>
       </c>
@@ -13037,8 +13301,9 @@
         <f t="shared" si="4"/>
         <v>48647</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S193" s="8"/>
+    </row>
+    <row r="194" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>465</v>
       </c>
@@ -13074,8 +13339,9 @@
         <f t="shared" si="4"/>
         <v>49735</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S194" s="8"/>
+    </row>
+    <row r="195" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>469</v>
       </c>
@@ -13111,8 +13377,9 @@
         <f t="shared" si="4"/>
         <v>49417</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S195" s="8"/>
+    </row>
+    <row r="196" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>469</v>
       </c>
@@ -13148,8 +13415,9 @@
         <f t="shared" si="4"/>
         <v>49423</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S196" s="8"/>
+    </row>
+    <row r="197" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>469</v>
       </c>
@@ -13185,8 +13453,9 @@
         <f t="shared" si="4"/>
         <v>49426</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S197" s="8"/>
+    </row>
+    <row r="198" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>474</v>
       </c>
@@ -13225,8 +13494,9 @@
         <f t="shared" si="4"/>
         <v>49779</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S198" s="8"/>
+    </row>
+    <row r="199" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>479</v>
       </c>
@@ -13262,8 +13532,9 @@
         <f t="shared" si="4"/>
         <v>48653</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S199" s="8"/>
+    </row>
+    <row r="200" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>484</v>
       </c>
@@ -13299,8 +13570,9 @@
         <f t="shared" si="4"/>
         <v>48602</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S200" s="8"/>
+    </row>
+    <row r="201" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>490</v>
       </c>
@@ -13336,8 +13608,9 @@
         <f t="shared" si="4"/>
         <v>48471</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S201" s="8"/>
+    </row>
+    <row r="202" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>498</v>
       </c>
@@ -13373,8 +13646,9 @@
         <f t="shared" si="4"/>
         <v>49854</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S202" s="8"/>
+    </row>
+    <row r="203" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>504</v>
       </c>
@@ -13410,8 +13684,9 @@
         <f t="shared" si="4"/>
         <v>48817</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S203" s="8"/>
+    </row>
+    <row r="204" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>510</v>
       </c>
@@ -13447,8 +13722,9 @@
         <f t="shared" si="4"/>
         <v>48039</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S204" s="8"/>
+    </row>
+    <row r="205" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>510</v>
       </c>
@@ -13484,8 +13760,9 @@
         <f t="shared" si="4"/>
         <v>48060</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S205" s="8"/>
+    </row>
+    <row r="206" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>517</v>
       </c>
@@ -13524,8 +13801,9 @@
         <f t="shared" si="4"/>
         <v>49032</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S206" s="8"/>
+    </row>
+    <row r="207" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>525</v>
       </c>
@@ -13561,8 +13839,9 @@
         <f t="shared" si="4"/>
         <v>48723</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S207" s="8"/>
+    </row>
+    <row r="208" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>532</v>
       </c>
@@ -13598,8 +13877,9 @@
         <f t="shared" si="4"/>
         <v>49079</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S208" s="8"/>
+    </row>
+    <row r="209" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>532</v>
       </c>
@@ -13638,8 +13918,9 @@
         <f t="shared" si="4"/>
         <v>49090</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S209" s="8"/>
+    </row>
+    <row r="210" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>539</v>
       </c>
@@ -13678,8 +13959,9 @@
         <f t="shared" si="4"/>
         <v>48107</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S210" s="8"/>
+    </row>
+    <row r="211" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>539</v>
       </c>
@@ -13715,8 +13997,9 @@
         <f t="shared" si="4"/>
         <v>48118</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S211" s="8"/>
+    </row>
+    <row r="212" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>539</v>
       </c>
@@ -13752,8 +14035,9 @@
         <f t="shared" si="4"/>
         <v>48176</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S212" s="8"/>
+    </row>
+    <row r="213" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>539</v>
       </c>
@@ -13789,8 +14073,9 @@
         <f t="shared" si="4"/>
         <v>48197</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S213" s="8"/>
+    </row>
+    <row r="214" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>539</v>
       </c>
@@ -13826,8 +14111,9 @@
         <f t="shared" si="4"/>
         <v>48197</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S214" s="8"/>
+    </row>
+    <row r="215" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>539</v>
       </c>
@@ -13866,8 +14152,9 @@
         <f t="shared" si="4"/>
         <v>48104</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S215" s="8"/>
+    </row>
+    <row r="216" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>545</v>
       </c>
@@ -13903,8 +14190,9 @@
         <f t="shared" si="4"/>
         <v>48154</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S216" s="8"/>
+    </row>
+    <row r="217" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>545</v>
       </c>
@@ -13940,8 +14228,9 @@
         <f t="shared" si="4"/>
         <v>48239</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S217" s="8"/>
+    </row>
+    <row r="218" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>545</v>
       </c>
@@ -13977,8 +14266,9 @@
         <f t="shared" si="4"/>
         <v>48185</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S218" s="8"/>
+    </row>
+    <row r="219" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>545</v>
       </c>
@@ -14014,8 +14304,9 @@
         <f t="shared" si="4"/>
         <v>48126</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S219" s="8"/>
+    </row>
+    <row r="220" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>545</v>
       </c>
@@ -14051,8 +14342,9 @@
         <f t="shared" si="4"/>
         <v>48125</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S220" s="8"/>
+    </row>
+    <row r="221" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>545</v>
       </c>
@@ -14088,8 +14380,9 @@
         <f t="shared" si="4"/>
         <v>48135</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S221" s="8"/>
+    </row>
+    <row r="222" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>545</v>
       </c>
@@ -14125,8 +14418,9 @@
         <f t="shared" si="4"/>
         <v>48141</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S222" s="8"/>
+    </row>
+    <row r="223" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>545</v>
       </c>
@@ -14162,8 +14456,9 @@
         <f t="shared" si="4"/>
         <v>48180</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S223" s="8"/>
+    </row>
+    <row r="224" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>545</v>
       </c>
@@ -14199,8 +14494,9 @@
         <f t="shared" si="4"/>
         <v>48101</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S224" s="8"/>
+    </row>
+    <row r="225" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>545</v>
       </c>
@@ -14236,8 +14532,9 @@
         <f t="shared" si="4"/>
         <v>48146</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S225" s="8"/>
+    </row>
+    <row r="226" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>545</v>
       </c>
@@ -14273,8 +14570,9 @@
         <f t="shared" si="4"/>
         <v>48192</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S226" s="8"/>
+    </row>
+    <row r="227" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>545</v>
       </c>
@@ -14310,8 +14608,9 @@
         <f t="shared" si="4"/>
         <v>48195</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S227" s="8"/>
+    </row>
+    <row r="228" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>545</v>
       </c>
@@ -14347,8 +14646,9 @@
         <f t="shared" si="4"/>
         <v>48184</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S228" s="8"/>
+    </row>
+    <row r="229" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>545</v>
       </c>
@@ -14384,8 +14684,9 @@
         <f t="shared" si="4"/>
         <v>48203</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S229" s="8"/>
+    </row>
+    <row r="230" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>545</v>
       </c>
@@ -14421,8 +14722,9 @@
         <f t="shared" si="4"/>
         <v>48212</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S230" s="8"/>
+    </row>
+    <row r="231" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>545</v>
       </c>
@@ -14458,8 +14760,9 @@
         <f t="shared" si="4"/>
         <v>48225</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S231" s="8"/>
+    </row>
+    <row r="232" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>545</v>
       </c>
@@ -14495,8 +14798,9 @@
         <f t="shared" si="4"/>
         <v>48183</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S232" s="8"/>
+    </row>
+    <row r="233" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>545</v>
       </c>
@@ -14532,8 +14836,9 @@
         <f t="shared" si="4"/>
         <v>48174</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S233" s="8"/>
+    </row>
+    <row r="234" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>545</v>
       </c>
@@ -14569,8 +14874,9 @@
         <f t="shared" si="4"/>
         <v>48170</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S234" s="8"/>
+    </row>
+    <row r="235" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>545</v>
       </c>
@@ -14606,8 +14912,9 @@
         <f t="shared" si="4"/>
         <v>48226</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S235" s="8"/>
+    </row>
+    <row r="236" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>545</v>
       </c>
@@ -14643,8 +14950,9 @@
         <f t="shared" si="4"/>
         <v>48236</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S236" s="8"/>
+    </row>
+    <row r="237" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>545</v>
       </c>
@@ -14680,8 +14988,9 @@
         <f t="shared" si="4"/>
         <v>48236</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S237" s="8"/>
+    </row>
+    <row r="238" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>545</v>
       </c>
@@ -14717,8 +15026,9 @@
         <f t="shared" si="4"/>
         <v>48230</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S238" s="8"/>
+    </row>
+    <row r="239" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>545</v>
       </c>
@@ -14754,8 +15064,9 @@
         <f t="shared" si="4"/>
         <v>48230</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S239" s="8"/>
+    </row>
+    <row r="240" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>545</v>
       </c>
@@ -14791,8 +15102,9 @@
         <f t="shared" si="4"/>
         <v>48236</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S240" s="8"/>
+    </row>
+    <row r="241" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>552</v>
       </c>
@@ -14828,8 +15140,9 @@
         <f t="shared" si="4"/>
         <v>49601</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S241" s="8"/>
+    </row>
+    <row r="242" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>18</v>
       </c>
@@ -14865,8 +15178,9 @@
         <f t="shared" si="4"/>
         <v>48740</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S242" s="8"/>
+    </row>
+    <row r="243" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>27</v>
       </c>
@@ -14899,8 +15213,9 @@
         <f t="shared" si="4"/>
         <v>49862</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S243" s="8"/>
+    </row>
+    <row r="244" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>33</v>
       </c>
@@ -14936,8 +15251,9 @@
         <f t="shared" si="4"/>
         <v>49010</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S244" s="8"/>
+    </row>
+    <row r="245" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>40</v>
       </c>
@@ -14973,8 +15289,9 @@
         <f t="shared" si="4"/>
         <v>49707</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S245" s="8"/>
+    </row>
+    <row r="246" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>47</v>
       </c>
@@ -15010,8 +15327,9 @@
         <f t="shared" si="4"/>
         <v>49615</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S246" s="8"/>
+    </row>
+    <row r="247" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>55</v>
       </c>
@@ -15047,8 +15365,9 @@
         <f t="shared" si="4"/>
         <v>48658</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S247" s="8"/>
+    </row>
+    <row r="248" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>60</v>
       </c>
@@ -15084,8 +15403,9 @@
         <f t="shared" si="4"/>
         <v>49946</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S248" s="8"/>
+    </row>
+    <row r="249" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>67</v>
       </c>
@@ -15121,8 +15441,9 @@
         <f t="shared" si="4"/>
         <v>49058</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S249" s="8"/>
+    </row>
+    <row r="250" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>74</v>
       </c>
@@ -15155,8 +15476,9 @@
         <f t="shared" si="4"/>
         <v>48708</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S250" s="8"/>
+    </row>
+    <row r="251" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>80</v>
       </c>
@@ -15189,8 +15511,9 @@
         <f t="shared" si="4"/>
         <v>49617</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S251" s="8"/>
+    </row>
+    <row r="252" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>86</v>
       </c>
@@ -15226,8 +15549,9 @@
         <f t="shared" si="4"/>
         <v>49085</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S252" s="8"/>
+    </row>
+    <row r="253" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>93</v>
       </c>
@@ -15263,8 +15587,9 @@
         <f t="shared" si="4"/>
         <v>49036</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S253" s="8"/>
+    </row>
+    <row r="254" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>100</v>
       </c>
@@ -15300,8 +15625,9 @@
         <f t="shared" si="4"/>
         <v>49014</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S254" s="8"/>
+    </row>
+    <row r="255" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>107</v>
       </c>
@@ -15337,8 +15663,9 @@
         <f t="shared" si="4"/>
         <v>49031</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S255" s="8"/>
+    </row>
+    <row r="256" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>114</v>
       </c>
@@ -15374,8 +15701,9 @@
         <f t="shared" si="4"/>
         <v>49720</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S256" s="8"/>
+    </row>
+    <row r="257" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>121</v>
       </c>
@@ -15411,8 +15739,9 @@
         <f t="shared" si="4"/>
         <v>49721</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S257" s="8"/>
+    </row>
+    <row r="258" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
         <v>129</v>
       </c>
@@ -15445,8 +15774,9 @@
         <f t="shared" si="4"/>
         <v>49783</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S258" s="8"/>
+    </row>
+    <row r="259" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
         <v>136</v>
       </c>
@@ -15482,8 +15812,9 @@
         <f t="shared" si="4"/>
         <v>48625</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S259" s="8"/>
+    </row>
+    <row r="260" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
         <v>143</v>
       </c>
@@ -15522,8 +15853,9 @@
         <f t="shared" si="4"/>
         <v>48879</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S260" s="8"/>
+    </row>
+    <row r="261" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>151</v>
       </c>
@@ -15559,8 +15891,9 @@
         <f t="shared" si="4"/>
         <v>49738</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S261" s="8"/>
+    </row>
+    <row r="262" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>158</v>
       </c>
@@ -15596,8 +15929,9 @@
         <f t="shared" si="4"/>
         <v>49829</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S262" s="8"/>
+    </row>
+    <row r="263" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
         <v>165</v>
       </c>
@@ -15633,8 +15967,9 @@
         <f t="shared" si="4"/>
         <v>49801</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S263" s="8"/>
+    </row>
+    <row r="264" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
         <v>173</v>
       </c>
@@ -15670,8 +16005,9 @@
         <f t="shared" si="4"/>
         <v>48813</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S264" s="8"/>
+    </row>
+    <row r="265" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
         <v>180</v>
       </c>
@@ -15707,8 +16043,9 @@
         <f t="shared" si="4"/>
         <v>49770</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S265" s="8"/>
+    </row>
+    <row r="266" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
         <v>187</v>
       </c>
@@ -15744,8 +16081,9 @@
         <f t="shared" si="4"/>
         <v>48502</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S266" s="8"/>
+    </row>
+    <row r="267" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
         <v>194</v>
       </c>
@@ -15781,8 +16119,9 @@
         <f t="shared" si="4"/>
         <v>48624</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S267" s="8"/>
+    </row>
+    <row r="268" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
         <v>198</v>
       </c>
@@ -15818,8 +16157,9 @@
         <f t="shared" si="4"/>
         <v>49911</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S268" s="8"/>
+    </row>
+    <row r="269" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
         <v>206</v>
       </c>
@@ -15855,8 +16195,9 @@
         <f t="shared" si="4"/>
         <v>49684</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S269" s="8"/>
+    </row>
+    <row r="270" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
         <v>211</v>
       </c>
@@ -15892,8 +16233,9 @@
         <f t="shared" si="4"/>
         <v>48847</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S270" s="8"/>
+    </row>
+    <row r="271" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
         <v>217</v>
       </c>
@@ -15926,8 +16268,9 @@
         <f t="shared" si="4"/>
         <v>49242</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S271" s="8"/>
+    </row>
+    <row r="272" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>223</v>
       </c>
@@ -15963,8 +16306,9 @@
         <f t="shared" si="4"/>
         <v>49931</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S272" s="8"/>
+    </row>
+    <row r="273" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
         <v>228</v>
       </c>
@@ -16000,8 +16344,9 @@
         <f t="shared" si="4"/>
         <v>48413</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S273" s="8"/>
+    </row>
+    <row r="274" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
         <v>235</v>
       </c>
@@ -16034,8 +16379,9 @@
         <f t="shared" si="4"/>
         <v>48901</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S274" s="8"/>
+    </row>
+    <row r="275" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
         <v>243</v>
       </c>
@@ -16068,8 +16414,9 @@
         <f t="shared" si="4"/>
         <v>48846</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S275" s="8"/>
+    </row>
+    <row r="276" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
         <v>250</v>
       </c>
@@ -16102,8 +16449,9 @@
         <f t="shared" si="4"/>
         <v>48764</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S276" s="8"/>
+    </row>
+    <row r="277" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
         <v>257</v>
       </c>
@@ -16142,8 +16490,9 @@
         <f t="shared" si="4"/>
         <v>49920</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S277" s="8"/>
+    </row>
+    <row r="278" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
         <v>262</v>
       </c>
@@ -16179,8 +16528,9 @@
         <f t="shared" si="4"/>
         <v>48858</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S278" s="8"/>
+    </row>
+    <row r="279" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
         <v>269</v>
       </c>
@@ -16213,8 +16563,9 @@
         <f t="shared" si="4"/>
         <v>49202</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S279" s="8"/>
+    </row>
+    <row r="280" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>276</v>
       </c>
@@ -16247,8 +16598,9 @@
         <f t="shared" si="4"/>
         <v>49048</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S280" s="8"/>
+    </row>
+    <row r="281" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>283</v>
       </c>
@@ -16284,8 +16636,9 @@
         <f t="shared" si="4"/>
         <v>49646</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S281" s="8"/>
+    </row>
+    <row r="282" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
         <v>289</v>
       </c>
@@ -16318,8 +16671,9 @@
         <f t="shared" si="4"/>
         <v>49501</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S282" s="8"/>
+    </row>
+    <row r="283" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
         <v>296</v>
       </c>
@@ -16355,8 +16709,9 @@
         <f t="shared" si="4"/>
         <v>49950</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S283" s="8"/>
+    </row>
+    <row r="284" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>301</v>
       </c>
@@ -16389,8 +16744,9 @@
         <f t="shared" si="4"/>
         <v>49304</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S284" s="8"/>
+    </row>
+    <row r="285" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
         <v>308</v>
       </c>
@@ -16426,8 +16782,9 @@
         <f t="shared" si="4"/>
         <v>48446</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S285" s="8"/>
+    </row>
+    <row r="286" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
         <v>315</v>
       </c>
@@ -16460,8 +16817,9 @@
         <f t="shared" si="4"/>
         <v>49682</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S286" s="8"/>
+    </row>
+    <row r="287" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>320</v>
       </c>
@@ -16497,8 +16855,9 @@
         <f t="shared" si="4"/>
         <v>49221</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S287" s="8"/>
+    </row>
+    <row r="288" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
         <v>327</v>
       </c>
@@ -16531,8 +16890,9 @@
         <f t="shared" si="4"/>
         <v>48843</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S288" s="8"/>
+    </row>
+    <row r="289" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
         <v>334</v>
       </c>
@@ -16568,8 +16928,9 @@
         <f t="shared" si="4"/>
         <v>49868</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S289" s="8"/>
+    </row>
+    <row r="290" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
         <v>339</v>
       </c>
@@ -16605,8 +16966,9 @@
         <f t="shared" si="4"/>
         <v>49781</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S290" s="8"/>
+    </row>
+    <row r="291" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
         <v>344</v>
       </c>
@@ -16642,8 +17004,9 @@
         <f t="shared" si="4"/>
         <v>48043</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S291" s="8"/>
+    </row>
+    <row r="292" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
         <v>351</v>
       </c>
@@ -16676,8 +17039,9 @@
         <f t="shared" si="4"/>
         <v>49660</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S292" s="8"/>
+    </row>
+    <row r="293" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
         <v>356</v>
       </c>
@@ -16713,8 +17077,9 @@
         <f t="shared" si="4"/>
         <v>49855</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S293" s="8"/>
+    </row>
+    <row r="294" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
         <v>363</v>
       </c>
@@ -16750,8 +17115,9 @@
         <f t="shared" si="4"/>
         <v>49431</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S294" s="8"/>
+    </row>
+    <row r="295" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
         <v>370</v>
       </c>
@@ -16787,8 +17153,9 @@
         <f t="shared" si="4"/>
         <v>49307</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S295" s="8"/>
+    </row>
+    <row r="296" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
         <v>377</v>
       </c>
@@ -16824,8 +17191,9 @@
         <f t="shared" si="4"/>
         <v>49858</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S296" s="8"/>
+    </row>
+    <row r="297" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
         <v>382</v>
       </c>
@@ -16861,8 +17229,9 @@
         <f t="shared" si="4"/>
         <v>48640</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S297" s="8"/>
+    </row>
+    <row r="298" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
         <v>389</v>
       </c>
@@ -16898,8 +17267,9 @@
         <f t="shared" si="4"/>
         <v>49651</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S298" s="8"/>
+    </row>
+    <row r="299" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
         <v>397</v>
       </c>
@@ -16932,8 +17302,9 @@
         <f t="shared" si="4"/>
         <v>48161</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S299" s="8"/>
+    </row>
+    <row r="300" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
         <v>404</v>
       </c>
@@ -16969,8 +17340,9 @@
         <f t="shared" si="4"/>
         <v>48888</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S300" s="8"/>
+    </row>
+    <row r="301" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
         <v>410</v>
       </c>
@@ -17006,8 +17378,9 @@
         <f t="shared" si="4"/>
         <v>49709</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S301" s="8"/>
+    </row>
+    <row r="302" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
         <v>416</v>
       </c>
@@ -17040,8 +17413,9 @@
         <f t="shared" si="4"/>
         <v>49442</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S302" s="8"/>
+    </row>
+    <row r="303" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
         <v>423</v>
       </c>
@@ -17077,8 +17451,9 @@
         <f t="shared" si="4"/>
         <v>49349</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S303" s="8"/>
+    </row>
+    <row r="304" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>430</v>
       </c>
@@ -17111,8 +17486,9 @@
         <f t="shared" si="4"/>
         <v>48343</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S304" s="8"/>
+    </row>
+    <row r="305" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>437</v>
       </c>
@@ -17151,8 +17527,9 @@
         <f t="shared" si="4"/>
         <v>49420</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S305" s="8"/>
+    </row>
+    <row r="306" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>443</v>
       </c>
@@ -17185,8 +17562,9 @@
         <f t="shared" si="4"/>
         <v>48661</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S306" s="8"/>
+    </row>
+    <row r="307" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
         <v>450</v>
       </c>
@@ -17222,8 +17600,9 @@
         <f t="shared" si="4"/>
         <v>49953</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S307" s="8"/>
+    </row>
+    <row r="308" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
         <v>455</v>
       </c>
@@ -17259,8 +17638,9 @@
         <f t="shared" si="4"/>
         <v>49677</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S308" s="8"/>
+    </row>
+    <row r="309" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
         <v>460</v>
       </c>
@@ -17293,8 +17673,9 @@
         <f t="shared" si="4"/>
         <v>48647</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S309" s="8"/>
+    </row>
+    <row r="310" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>465</v>
       </c>
@@ -17327,8 +17708,9 @@
         <f t="shared" si="4"/>
         <v>49735</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S310" s="8"/>
+    </row>
+    <row r="311" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
         <v>469</v>
       </c>
@@ -17367,8 +17749,9 @@
         <f t="shared" si="4"/>
         <v>49460</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S311" s="8"/>
+    </row>
+    <row r="312" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
         <v>474</v>
       </c>
@@ -17401,8 +17784,9 @@
         <f t="shared" si="4"/>
         <v>49779</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S312" s="8"/>
+    </row>
+    <row r="313" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
         <v>479</v>
       </c>
@@ -17438,8 +17822,9 @@
         <f t="shared" si="4"/>
         <v>48653</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S313" s="8"/>
+    </row>
+    <row r="314" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
         <v>484</v>
       </c>
@@ -17472,8 +17857,9 @@
         <f t="shared" si="4"/>
         <v>48602</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S314" s="8"/>
+    </row>
+    <row r="315" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
         <v>490</v>
       </c>
@@ -17506,8 +17892,9 @@
         <f t="shared" si="4"/>
         <v>48471</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S315" s="8"/>
+    </row>
+    <row r="316" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
         <v>498</v>
       </c>
@@ -17543,8 +17930,9 @@
         <f t="shared" si="4"/>
         <v>49854</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S316" s="8"/>
+    </row>
+    <row r="317" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
         <v>504</v>
       </c>
@@ -17577,8 +17965,9 @@
         <f t="shared" si="4"/>
         <v>48817</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S317" s="8"/>
+    </row>
+    <row r="318" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
         <v>510</v>
       </c>
@@ -17614,8 +18003,9 @@
         <f t="shared" si="4"/>
         <v>48060</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S318" s="8"/>
+    </row>
+    <row r="319" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
         <v>517</v>
       </c>
@@ -17651,8 +18041,9 @@
         <f t="shared" si="4"/>
         <v>49032</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S319" s="8"/>
+    </row>
+    <row r="320" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
         <v>525</v>
       </c>
@@ -17685,8 +18076,9 @@
         <f t="shared" si="4"/>
         <v>48723</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S320" s="8"/>
+    </row>
+    <row r="321" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
         <v>532</v>
       </c>
@@ -17719,8 +18111,9 @@
         <f t="shared" si="4"/>
         <v>49079</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S321" s="8"/>
+    </row>
+    <row r="322" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
         <v>539</v>
       </c>
@@ -17756,8 +18149,9 @@
         <f t="shared" si="4"/>
         <v>48107</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S322" s="8"/>
+    </row>
+    <row r="323" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
         <v>545</v>
       </c>
@@ -17793,8 +18187,9 @@
         <f t="shared" si="4"/>
         <v>48226</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S323" s="8"/>
+    </row>
+    <row r="324" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
         <v>552</v>
       </c>
@@ -17830,8 +18225,9 @@
         <f t="shared" si="4"/>
         <v>49601</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S324" s="8"/>
+    </row>
+    <row r="325" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
         <v>18</v>
       </c>
@@ -17864,8 +18260,9 @@
         <f t="shared" si="4"/>
         <v>48740</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S325" s="8"/>
+    </row>
+    <row r="326" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
         <v>27</v>
       </c>
@@ -17898,8 +18295,9 @@
         <f t="shared" si="4"/>
         <v>49862</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S326" s="8"/>
+    </row>
+    <row r="327" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
         <v>33</v>
       </c>
@@ -17932,8 +18330,9 @@
         <f t="shared" si="4"/>
         <v>49010</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S327" s="8"/>
+    </row>
+    <row r="328" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
         <v>40</v>
       </c>
@@ -17966,8 +18365,9 @@
         <f t="shared" si="4"/>
         <v>49707</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S328" s="8"/>
+    </row>
+    <row r="329" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
         <v>47</v>
       </c>
@@ -18000,8 +18400,9 @@
         <f t="shared" si="4"/>
         <v>49615</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S329" s="8"/>
+    </row>
+    <row r="330" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
         <v>55</v>
       </c>
@@ -18034,8 +18435,9 @@
         <f t="shared" si="4"/>
         <v>48658</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S330" s="8"/>
+    </row>
+    <row r="331" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
         <v>60</v>
       </c>
@@ -18068,8 +18470,9 @@
         <f t="shared" si="4"/>
         <v>49946</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S331" s="8"/>
+    </row>
+    <row r="332" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
         <v>67</v>
       </c>
@@ -18102,8 +18505,9 @@
         <f t="shared" si="4"/>
         <v>49058</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S332" s="8"/>
+    </row>
+    <row r="333" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>74</v>
       </c>
@@ -18133,8 +18537,9 @@
         <f t="shared" si="4"/>
         <v>48708</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S333" s="8"/>
+    </row>
+    <row r="334" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
         <v>80</v>
       </c>
@@ -18167,8 +18572,9 @@
         <f t="shared" si="4"/>
         <v>49617</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S334" s="8"/>
+    </row>
+    <row r="335" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
         <v>86</v>
       </c>
@@ -18201,8 +18607,9 @@
         <f t="shared" si="4"/>
         <v>49085</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S335" s="8"/>
+    </row>
+    <row r="336" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
         <v>93</v>
       </c>
@@ -18235,8 +18642,9 @@
         <f t="shared" si="4"/>
         <v>49036</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S336" s="8"/>
+    </row>
+    <row r="337" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
         <v>100</v>
       </c>
@@ -18269,8 +18677,9 @@
         <f t="shared" si="4"/>
         <v>49014</v>
       </c>
-    </row>
-    <row r="338" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S337" s="8"/>
+    </row>
+    <row r="338" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
         <v>107</v>
       </c>
@@ -18303,8 +18712,9 @@
         <f t="shared" si="4"/>
         <v>49031</v>
       </c>
-    </row>
-    <row r="339" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S338" s="8"/>
+    </row>
+    <row r="339" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
         <v>114</v>
       </c>
@@ -18337,8 +18747,9 @@
         <f t="shared" si="4"/>
         <v>49720</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S339" s="8"/>
+    </row>
+    <row r="340" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
         <v>121</v>
       </c>
@@ -18371,8 +18782,9 @@
         <f t="shared" si="4"/>
         <v>49721</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S340" s="8"/>
+    </row>
+    <row r="341" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
         <v>129</v>
       </c>
@@ -18405,8 +18817,9 @@
         <f t="shared" ref="N341:N409" si="6">MID(H341, FIND(", MI", H341) + 5, 100)</f>
         <v>49783</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S341" s="8"/>
+    </row>
+    <row r="342" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
         <v>136</v>
       </c>
@@ -18439,8 +18852,9 @@
         <f t="shared" si="6"/>
         <v>48625</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S342" s="8"/>
+    </row>
+    <row r="343" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
         <v>143</v>
       </c>
@@ -18473,8 +18887,9 @@
         <f t="shared" si="6"/>
         <v>48879</v>
       </c>
-    </row>
-    <row r="344" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S343" s="8"/>
+    </row>
+    <row r="344" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
         <v>151</v>
       </c>
@@ -18507,8 +18922,9 @@
         <f t="shared" si="6"/>
         <v>49738</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S344" s="8"/>
+    </row>
+    <row r="345" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
         <v>158</v>
       </c>
@@ -18541,8 +18957,9 @@
         <f t="shared" si="6"/>
         <v>49829</v>
       </c>
-    </row>
-    <row r="346" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S345" s="8"/>
+    </row>
+    <row r="346" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
         <v>165</v>
       </c>
@@ -18575,8 +18992,9 @@
         <f t="shared" si="6"/>
         <v>49801</v>
       </c>
-    </row>
-    <row r="347" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S346" s="8"/>
+    </row>
+    <row r="347" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
         <v>173</v>
       </c>
@@ -18609,8 +19027,9 @@
         <f t="shared" si="6"/>
         <v>48813</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S347" s="8"/>
+    </row>
+    <row r="348" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
         <v>180</v>
       </c>
@@ -18643,8 +19062,9 @@
         <f t="shared" si="6"/>
         <v>49770</v>
       </c>
-    </row>
-    <row r="349" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S348" s="8"/>
+    </row>
+    <row r="349" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
         <v>187</v>
       </c>
@@ -18674,8 +19094,9 @@
         <f t="shared" si="6"/>
         <v>48502</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S349" s="8"/>
+    </row>
+    <row r="350" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
         <v>194</v>
       </c>
@@ -18708,8 +19129,9 @@
         <f t="shared" si="6"/>
         <v>48624</v>
       </c>
-    </row>
-    <row r="351" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S350" s="8"/>
+    </row>
+    <row r="351" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
         <v>198</v>
       </c>
@@ -18742,8 +19164,9 @@
         <f t="shared" si="6"/>
         <v>49911</v>
       </c>
-    </row>
-    <row r="352" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S351" s="8"/>
+    </row>
+    <row r="352" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
         <v>206</v>
       </c>
@@ -18776,8 +19199,9 @@
         <f t="shared" si="6"/>
         <v>49684</v>
       </c>
-    </row>
-    <row r="353" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S352" s="8"/>
+    </row>
+    <row r="353" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
         <v>211</v>
       </c>
@@ -18810,8 +19234,9 @@
         <f t="shared" si="6"/>
         <v>48847</v>
       </c>
-    </row>
-    <row r="354" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S353" s="8"/>
+    </row>
+    <row r="354" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
         <v>217</v>
       </c>
@@ -18844,8 +19269,9 @@
         <f t="shared" si="6"/>
         <v>49242</v>
       </c>
-    </row>
-    <row r="355" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S354" s="8"/>
+    </row>
+    <row r="355" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
         <v>223</v>
       </c>
@@ -18878,8 +19304,9 @@
         <f t="shared" si="6"/>
         <v>49931</v>
       </c>
-    </row>
-    <row r="356" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S355" s="8"/>
+    </row>
+    <row r="356" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
         <v>228</v>
       </c>
@@ -18912,8 +19339,9 @@
         <f t="shared" si="6"/>
         <v>48413</v>
       </c>
-    </row>
-    <row r="357" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S356" s="8"/>
+    </row>
+    <row r="357" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
         <v>235</v>
       </c>
@@ -18946,8 +19374,9 @@
         <f t="shared" si="6"/>
         <v>48933</v>
       </c>
-    </row>
-    <row r="358" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S357" s="8"/>
+    </row>
+    <row r="358" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
         <v>243</v>
       </c>
@@ -18980,8 +19409,9 @@
         <f t="shared" si="6"/>
         <v>48846</v>
       </c>
-    </row>
-    <row r="359" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S358" s="8"/>
+    </row>
+    <row r="359" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
         <v>250</v>
       </c>
@@ -19014,8 +19444,9 @@
         <f t="shared" si="6"/>
         <v>48764</v>
       </c>
-    </row>
-    <row r="360" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S359" s="8"/>
+    </row>
+    <row r="360" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
         <v>257</v>
       </c>
@@ -19048,8 +19479,9 @@
         <f t="shared" si="6"/>
         <v>49920</v>
       </c>
-    </row>
-    <row r="361" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S360" s="8"/>
+    </row>
+    <row r="361" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
         <v>262</v>
       </c>
@@ -19082,8 +19514,9 @@
         <f t="shared" si="6"/>
         <v>48858</v>
       </c>
-    </row>
-    <row r="362" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S361" s="8"/>
+    </row>
+    <row r="362" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
         <v>269</v>
       </c>
@@ -19116,8 +19549,9 @@
         <f t="shared" si="6"/>
         <v>49201</v>
       </c>
-    </row>
-    <row r="363" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S362" s="8"/>
+    </row>
+    <row r="363" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
         <v>276</v>
       </c>
@@ -19150,8 +19584,9 @@
         <f t="shared" si="6"/>
         <v>49048</v>
       </c>
-    </row>
-    <row r="364" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S363" s="8"/>
+    </row>
+    <row r="364" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
         <v>283</v>
       </c>
@@ -19184,8 +19619,9 @@
         <f t="shared" si="6"/>
         <v>49646</v>
       </c>
-    </row>
-    <row r="365" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S364" s="8"/>
+    </row>
+    <row r="365" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
         <v>289</v>
       </c>
@@ -19218,8 +19654,9 @@
         <f t="shared" si="6"/>
         <v>49503</v>
       </c>
-    </row>
-    <row r="366" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S365" s="8"/>
+    </row>
+    <row r="366" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
         <v>296</v>
       </c>
@@ -19252,8 +19689,9 @@
         <f t="shared" si="6"/>
         <v>49950-9624</v>
       </c>
-    </row>
-    <row r="367" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S366" s="8"/>
+    </row>
+    <row r="367" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
         <v>301</v>
       </c>
@@ -19283,8 +19721,9 @@
         <f t="shared" si="6"/>
         <v>49304</v>
       </c>
-    </row>
-    <row r="368" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S367" s="8"/>
+    </row>
+    <row r="368" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
         <v>308</v>
       </c>
@@ -19317,8 +19756,9 @@
         <f t="shared" si="6"/>
         <v>48446</v>
       </c>
-    </row>
-    <row r="369" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S368" s="8"/>
+    </row>
+    <row r="369" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
         <v>315</v>
       </c>
@@ -19348,8 +19788,9 @@
         <f t="shared" si="6"/>
         <v>49682-9718</v>
       </c>
-    </row>
-    <row r="370" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S369" s="8"/>
+    </row>
+    <row r="370" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
         <v>320</v>
       </c>
@@ -19382,8 +19823,9 @@
         <f t="shared" si="6"/>
         <v>49221</v>
       </c>
-    </row>
-    <row r="371" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S370" s="8"/>
+    </row>
+    <row r="371" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
         <v>327</v>
       </c>
@@ -19416,8 +19858,9 @@
         <f t="shared" si="6"/>
         <v>48843</v>
       </c>
-    </row>
-    <row r="372" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S371" s="8"/>
+    </row>
+    <row r="372" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
         <v>334</v>
       </c>
@@ -19450,8 +19893,9 @@
         <f t="shared" si="6"/>
         <v>49868</v>
       </c>
-    </row>
-    <row r="373" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S372" s="8"/>
+    </row>
+    <row r="373" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
         <v>339</v>
       </c>
@@ -19484,8 +19928,9 @@
         <f t="shared" si="6"/>
         <v>49781</v>
       </c>
-    </row>
-    <row r="374" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S373" s="8"/>
+    </row>
+    <row r="374" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
         <v>344</v>
       </c>
@@ -19515,8 +19960,9 @@
         <f t="shared" si="6"/>
         <v>48043</v>
       </c>
-    </row>
-    <row r="375" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S374" s="8"/>
+    </row>
+    <row r="375" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
         <v>344</v>
       </c>
@@ -19547,8 +19993,9 @@
         <f t="shared" si="6"/>
         <v>48043</v>
       </c>
-    </row>
-    <row r="376" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S375" s="8"/>
+    </row>
+    <row r="376" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
         <v>351</v>
       </c>
@@ -19581,8 +20028,9 @@
         <f t="shared" si="6"/>
         <v>49660</v>
       </c>
-    </row>
-    <row r="377" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S376" s="8"/>
+    </row>
+    <row r="377" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
         <v>356</v>
       </c>
@@ -19615,8 +20063,9 @@
         <f t="shared" si="6"/>
         <v>49855</v>
       </c>
-    </row>
-    <row r="378" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S377" s="8"/>
+    </row>
+    <row r="378" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
         <v>363</v>
       </c>
@@ -19649,8 +20098,9 @@
         <f t="shared" si="6"/>
         <v>49431</v>
       </c>
-    </row>
-    <row r="379" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S378" s="8"/>
+    </row>
+    <row r="379" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
         <v>370</v>
       </c>
@@ -19683,8 +20133,9 @@
         <f t="shared" si="6"/>
         <v>49307</v>
       </c>
-    </row>
-    <row r="380" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S379" s="8"/>
+    </row>
+    <row r="380" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
         <v>377</v>
       </c>
@@ -19717,8 +20168,9 @@
         <f t="shared" si="6"/>
         <v>49858</v>
       </c>
-    </row>
-    <row r="381" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S380" s="8"/>
+    </row>
+    <row r="381" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
         <v>382</v>
       </c>
@@ -19751,8 +20203,9 @@
         <f t="shared" si="6"/>
         <v>48640</v>
       </c>
-    </row>
-    <row r="382" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S381" s="8"/>
+    </row>
+    <row r="382" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
         <v>389</v>
       </c>
@@ -19782,8 +20235,9 @@
         <f t="shared" si="6"/>
         <v>49651</v>
       </c>
-    </row>
-    <row r="383" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S382" s="8"/>
+    </row>
+    <row r="383" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
         <v>397</v>
       </c>
@@ -19816,8 +20270,9 @@
         <f t="shared" si="6"/>
         <v>48161</v>
       </c>
-    </row>
-    <row r="384" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S383" s="8"/>
+    </row>
+    <row r="384" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
         <v>397</v>
       </c>
@@ -19850,8 +20305,9 @@
         <f t="shared" si="6"/>
         <v>48161</v>
       </c>
-    </row>
-    <row r="385" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S384" s="8"/>
+    </row>
+    <row r="385" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
         <v>404</v>
       </c>
@@ -19884,8 +20340,9 @@
         <f t="shared" si="6"/>
         <v>48888</v>
       </c>
-    </row>
-    <row r="386" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S385" s="8"/>
+    </row>
+    <row r="386" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
         <v>410</v>
       </c>
@@ -19918,8 +20375,9 @@
         <f t="shared" si="6"/>
         <v>49709</v>
       </c>
-    </row>
-    <row r="387" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S386" s="8"/>
+    </row>
+    <row r="387" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
         <v>416</v>
       </c>
@@ -19952,8 +20410,9 @@
         <f t="shared" si="6"/>
         <v>49442</v>
       </c>
-    </row>
-    <row r="388" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S387" s="8"/>
+    </row>
+    <row r="388" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
         <v>423</v>
       </c>
@@ -19983,8 +20442,9 @@
         <f t="shared" si="6"/>
         <v>49349</v>
       </c>
-    </row>
-    <row r="389" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S388" s="8"/>
+    </row>
+    <row r="389" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
         <v>430</v>
       </c>
@@ -20017,8 +20477,9 @@
         <f t="shared" si="6"/>
         <v>48341</v>
       </c>
-    </row>
-    <row r="390" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S389" s="8"/>
+    </row>
+    <row r="390" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
         <v>437</v>
       </c>
@@ -20051,8 +20512,9 @@
         <f t="shared" si="6"/>
         <v>49420</v>
       </c>
-    </row>
-    <row r="391" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S390" s="8"/>
+    </row>
+    <row r="391" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
         <v>443</v>
       </c>
@@ -20085,8 +20547,9 @@
         <f t="shared" si="6"/>
         <v>48661</v>
       </c>
-    </row>
-    <row r="392" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S391" s="8"/>
+    </row>
+    <row r="392" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
         <v>450</v>
       </c>
@@ -20119,8 +20582,9 @@
         <f t="shared" si="6"/>
         <v>49953</v>
       </c>
-    </row>
-    <row r="393" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S392" s="8"/>
+    </row>
+    <row r="393" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
         <v>455</v>
       </c>
@@ -20153,8 +20617,9 @@
         <f t="shared" si="6"/>
         <v>49677</v>
       </c>
-    </row>
-    <row r="394" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S393" s="8"/>
+    </row>
+    <row r="394" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
         <v>460</v>
       </c>
@@ -20187,8 +20652,9 @@
         <f t="shared" si="6"/>
         <v>48647</v>
       </c>
-    </row>
-    <row r="395" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S394" s="8"/>
+    </row>
+    <row r="395" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
         <v>465</v>
       </c>
@@ -20221,8 +20687,9 @@
         <f t="shared" si="6"/>
         <v>49735</v>
       </c>
-    </row>
-    <row r="396" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S395" s="8"/>
+    </row>
+    <row r="396" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
         <v>469</v>
       </c>
@@ -20252,8 +20719,9 @@
         <f t="shared" si="6"/>
         <v>49417</v>
       </c>
-    </row>
-    <row r="397" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S396" s="8"/>
+    </row>
+    <row r="397" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
         <v>474</v>
       </c>
@@ -20286,8 +20754,9 @@
         <f t="shared" si="6"/>
         <v>49779</v>
       </c>
-    </row>
-    <row r="398" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S397" s="8"/>
+    </row>
+    <row r="398" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
         <v>479</v>
       </c>
@@ -20320,8 +20789,9 @@
         <f t="shared" si="6"/>
         <v>48653</v>
       </c>
-    </row>
-    <row r="399" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S398" s="8"/>
+    </row>
+    <row r="399" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
         <v>484</v>
       </c>
@@ -20354,8 +20824,9 @@
         <f t="shared" si="6"/>
         <v>48602</v>
       </c>
-    </row>
-    <row r="400" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S399" s="8"/>
+    </row>
+    <row r="400" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
         <v>490</v>
       </c>
@@ -20388,8 +20859,9 @@
         <f t="shared" si="6"/>
         <v>48471</v>
       </c>
-    </row>
-    <row r="401" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S400" s="8"/>
+    </row>
+    <row r="401" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
         <v>498</v>
       </c>
@@ -20422,8 +20894,9 @@
         <f t="shared" si="6"/>
         <v>49854</v>
       </c>
-    </row>
-    <row r="402" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S401" s="8"/>
+    </row>
+    <row r="402" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
         <v>504</v>
       </c>
@@ -20456,8 +20929,9 @@
         <f t="shared" si="6"/>
         <v>48817</v>
       </c>
-    </row>
-    <row r="403" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S402" s="8"/>
+    </row>
+    <row r="403" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
         <v>510</v>
       </c>
@@ -20490,8 +20964,9 @@
         <f t="shared" si="6"/>
         <v>48060</v>
       </c>
-    </row>
-    <row r="404" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S403" s="8"/>
+    </row>
+    <row r="404" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
         <v>517</v>
       </c>
@@ -20524,8 +20999,9 @@
         <f t="shared" si="6"/>
         <v>49032</v>
       </c>
-    </row>
-    <row r="405" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S404" s="8"/>
+    </row>
+    <row r="405" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
         <v>525</v>
       </c>
@@ -20558,8 +21034,9 @@
         <f t="shared" si="6"/>
         <v>48723</v>
       </c>
-    </row>
-    <row r="406" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S405" s="8"/>
+    </row>
+    <row r="406" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
         <v>532</v>
       </c>
@@ -20595,8 +21072,9 @@
         <f t="shared" si="6"/>
         <v>49079</v>
       </c>
-    </row>
-    <row r="407" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S406" s="8"/>
+    </row>
+    <row r="407" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
         <v>539</v>
       </c>
@@ -20629,8 +21107,9 @@
         <f t="shared" si="6"/>
         <v>48107</v>
       </c>
-    </row>
-    <row r="408" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S407" s="8"/>
+    </row>
+    <row r="408" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
         <v>545</v>
       </c>
@@ -20666,8 +21145,9 @@
         <f t="shared" si="6"/>
         <v>48226</v>
       </c>
-    </row>
-    <row r="409" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="S408" s="8"/>
+    </row>
+    <row r="409" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
         <v>552</v>
       </c>
@@ -20697,6 +21177,1786 @@
         <f t="shared" si="6"/>
         <v>49601</v>
       </c>
+      <c r="S409" s="8"/>
+    </row>
+    <row r="410" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S410" s="8"/>
+    </row>
+    <row r="411" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S411" s="8"/>
+    </row>
+    <row r="412" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S412" s="8"/>
+    </row>
+    <row r="413" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S413" s="8"/>
+    </row>
+    <row r="414" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S414" s="8"/>
+    </row>
+    <row r="415" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S415" s="8"/>
+    </row>
+    <row r="416" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S416" s="8"/>
+    </row>
+    <row r="417" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S417" s="8"/>
+    </row>
+    <row r="418" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S418" s="8"/>
+    </row>
+    <row r="419" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S419" s="8"/>
+    </row>
+    <row r="420" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S420" s="8"/>
+    </row>
+    <row r="421" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S421" s="8"/>
+    </row>
+    <row r="422" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S422" s="8"/>
+    </row>
+    <row r="423" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S423" s="8"/>
+    </row>
+    <row r="424" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S424" s="8"/>
+    </row>
+    <row r="425" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S425" s="8"/>
+    </row>
+    <row r="426" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S426" s="8"/>
+    </row>
+    <row r="427" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S427" s="8"/>
+    </row>
+    <row r="428" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S428" s="8"/>
+    </row>
+    <row r="429" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S429" s="8"/>
+    </row>
+    <row r="430" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S430" s="8"/>
+    </row>
+    <row r="431" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S431" s="8"/>
+    </row>
+    <row r="432" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S432" s="8"/>
+    </row>
+    <row r="433" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S433" s="8"/>
+    </row>
+    <row r="434" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S434" s="8"/>
+    </row>
+    <row r="435" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S435" s="8"/>
+    </row>
+    <row r="436" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S436" s="8"/>
+    </row>
+    <row r="437" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S437" s="8"/>
+    </row>
+    <row r="438" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S438" s="8"/>
+    </row>
+    <row r="439" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S439" s="8"/>
+    </row>
+    <row r="440" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S440" s="8"/>
+    </row>
+    <row r="441" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S441" s="8"/>
+    </row>
+    <row r="442" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S442" s="8"/>
+    </row>
+    <row r="443" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S443" s="8"/>
+    </row>
+    <row r="444" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S444" s="8"/>
+    </row>
+    <row r="445" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S445" s="8"/>
+    </row>
+    <row r="446" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S446" s="8"/>
+    </row>
+    <row r="447" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S447" s="8"/>
+    </row>
+    <row r="448" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S448" s="8"/>
+    </row>
+    <row r="449" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S449" s="8"/>
+    </row>
+    <row r="450" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S450" s="8"/>
+    </row>
+    <row r="451" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S451" s="8"/>
+    </row>
+    <row r="452" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S452" s="8"/>
+    </row>
+    <row r="453" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S453" s="8"/>
+    </row>
+    <row r="454" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S454" s="8"/>
+    </row>
+    <row r="455" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S455" s="8"/>
+    </row>
+    <row r="456" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S456" s="8"/>
+    </row>
+    <row r="457" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S457" s="8"/>
+    </row>
+    <row r="458" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S458" s="8"/>
+    </row>
+    <row r="459" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S459" s="8"/>
+    </row>
+    <row r="460" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S460" s="8"/>
+    </row>
+    <row r="461" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S461" s="8"/>
+    </row>
+    <row r="462" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S462" s="8"/>
+    </row>
+    <row r="463" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S463" s="8"/>
+    </row>
+    <row r="464" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S464" s="8"/>
+    </row>
+    <row r="465" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S465" s="8"/>
+    </row>
+    <row r="466" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S466" s="8"/>
+    </row>
+    <row r="467" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S467" s="8"/>
+    </row>
+    <row r="468" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S468" s="8"/>
+    </row>
+    <row r="469" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S469" s="8"/>
+    </row>
+    <row r="470" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S470" s="8"/>
+    </row>
+    <row r="471" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S471" s="8"/>
+    </row>
+    <row r="472" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S472" s="8"/>
+    </row>
+    <row r="473" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S473" s="8"/>
+    </row>
+    <row r="474" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S474" s="8"/>
+    </row>
+    <row r="475" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S475" s="8"/>
+    </row>
+    <row r="476" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S476" s="8"/>
+    </row>
+    <row r="477" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S477" s="8"/>
+    </row>
+    <row r="478" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S478" s="8"/>
+    </row>
+    <row r="479" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S479" s="8"/>
+    </row>
+    <row r="480" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S480" s="8"/>
+    </row>
+    <row r="481" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S481" s="8"/>
+    </row>
+    <row r="482" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S482" s="8"/>
+    </row>
+    <row r="483" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S483" s="8"/>
+    </row>
+    <row r="484" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S484" s="8"/>
+    </row>
+    <row r="485" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S485" s="8"/>
+    </row>
+    <row r="486" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S486" s="8"/>
+    </row>
+    <row r="487" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S487" s="8"/>
+    </row>
+    <row r="488" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S488" s="8"/>
+    </row>
+    <row r="489" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S489" s="8"/>
+    </row>
+    <row r="490" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S490" s="8"/>
+    </row>
+    <row r="491" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S491" s="8"/>
+    </row>
+    <row r="492" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S492" s="8"/>
+    </row>
+    <row r="493" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S493" s="8"/>
+    </row>
+    <row r="494" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S494" s="8"/>
+    </row>
+    <row r="495" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S495" s="8"/>
+    </row>
+    <row r="496" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S496" s="8"/>
+    </row>
+    <row r="497" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S497" s="8"/>
+    </row>
+    <row r="498" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S498" s="8"/>
+    </row>
+    <row r="499" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S499" s="8"/>
+    </row>
+    <row r="500" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S500" s="8"/>
+    </row>
+    <row r="501" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S501" s="8"/>
+    </row>
+    <row r="502" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S502" s="8"/>
+    </row>
+    <row r="503" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S503" s="8"/>
+    </row>
+    <row r="504" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S504" s="8"/>
+    </row>
+    <row r="505" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S505" s="8"/>
+    </row>
+    <row r="506" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S506" s="8"/>
+    </row>
+    <row r="507" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S507" s="8"/>
+    </row>
+    <row r="508" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S508" s="8"/>
+    </row>
+    <row r="509" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S509" s="8"/>
+    </row>
+    <row r="510" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S510" s="8"/>
+    </row>
+    <row r="511" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S511" s="8"/>
+    </row>
+    <row r="512" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S512" s="8"/>
+    </row>
+    <row r="513" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S513" s="8"/>
+    </row>
+    <row r="514" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S514" s="8"/>
+    </row>
+    <row r="515" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S515" s="8"/>
+    </row>
+    <row r="516" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S516" s="8"/>
+    </row>
+    <row r="517" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S517" s="8"/>
+    </row>
+    <row r="518" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S518" s="8"/>
+    </row>
+    <row r="519" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S519" s="8"/>
+    </row>
+    <row r="520" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S520" s="8"/>
+    </row>
+    <row r="521" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S521" s="8"/>
+    </row>
+    <row r="522" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S522" s="8"/>
+    </row>
+    <row r="523" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S523" s="8"/>
+    </row>
+    <row r="524" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S524" s="8"/>
+    </row>
+    <row r="525" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S525" s="8"/>
+    </row>
+    <row r="526" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S526" s="8"/>
+    </row>
+    <row r="527" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S527" s="8"/>
+    </row>
+    <row r="528" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S528" s="8"/>
+    </row>
+    <row r="529" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S529" s="8"/>
+    </row>
+    <row r="530" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S530" s="8"/>
+    </row>
+    <row r="531" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S531" s="8"/>
+    </row>
+    <row r="532" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S532" s="8"/>
+    </row>
+    <row r="533" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S533" s="8"/>
+    </row>
+    <row r="534" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S534" s="8"/>
+    </row>
+    <row r="535" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S535" s="8"/>
+    </row>
+    <row r="536" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S536" s="8"/>
+    </row>
+    <row r="537" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S537" s="8"/>
+    </row>
+    <row r="538" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S538" s="8"/>
+    </row>
+    <row r="539" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S539" s="8"/>
+    </row>
+    <row r="540" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S540" s="8"/>
+    </row>
+    <row r="541" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S541" s="8"/>
+    </row>
+    <row r="542" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S542" s="8"/>
+    </row>
+    <row r="543" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S543" s="8"/>
+    </row>
+    <row r="544" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S544" s="8"/>
+    </row>
+    <row r="545" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S545" s="8"/>
+    </row>
+    <row r="546" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S546" s="8"/>
+    </row>
+    <row r="547" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S547" s="8"/>
+    </row>
+    <row r="548" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S548" s="8"/>
+    </row>
+    <row r="549" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S549" s="8"/>
+    </row>
+    <row r="550" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S550" s="8"/>
+    </row>
+    <row r="551" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S551" s="8"/>
+    </row>
+    <row r="552" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S552" s="8"/>
+    </row>
+    <row r="553" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S553" s="8"/>
+    </row>
+    <row r="554" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S554" s="8"/>
+    </row>
+    <row r="555" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S555" s="8"/>
+    </row>
+    <row r="556" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S556" s="8"/>
+    </row>
+    <row r="557" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S557" s="8"/>
+    </row>
+    <row r="558" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S558" s="8"/>
+    </row>
+    <row r="559" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S559" s="8"/>
+    </row>
+    <row r="560" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S560" s="8"/>
+    </row>
+    <row r="561" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S561" s="8"/>
+    </row>
+    <row r="562" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S562" s="8"/>
+    </row>
+    <row r="563" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S563" s="8"/>
+    </row>
+    <row r="564" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S564" s="8"/>
+    </row>
+    <row r="565" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S565" s="8"/>
+    </row>
+    <row r="566" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S566" s="8"/>
+    </row>
+    <row r="567" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S567" s="8"/>
+    </row>
+    <row r="568" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S568" s="8"/>
+    </row>
+    <row r="569" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S569" s="8"/>
+    </row>
+    <row r="570" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S570" s="8"/>
+    </row>
+    <row r="571" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S571" s="8"/>
+    </row>
+    <row r="572" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S572" s="8"/>
+    </row>
+    <row r="573" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S573" s="8"/>
+    </row>
+    <row r="574" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S574" s="8"/>
+    </row>
+    <row r="575" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S575" s="8"/>
+    </row>
+    <row r="576" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S576" s="8"/>
+    </row>
+    <row r="577" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S577" s="8"/>
+    </row>
+    <row r="578" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S578" s="8"/>
+    </row>
+    <row r="579" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S579" s="8"/>
+    </row>
+    <row r="580" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S580" s="8"/>
+    </row>
+    <row r="581" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S581" s="8"/>
+    </row>
+    <row r="582" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S582" s="8"/>
+    </row>
+    <row r="583" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S583" s="8"/>
+    </row>
+    <row r="584" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S584" s="8"/>
+    </row>
+    <row r="585" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S585" s="8"/>
+    </row>
+    <row r="586" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S586" s="8"/>
+    </row>
+    <row r="587" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S587" s="8"/>
+    </row>
+    <row r="588" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S588" s="8"/>
+    </row>
+    <row r="589" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S589" s="8"/>
+    </row>
+    <row r="590" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S590" s="8"/>
+    </row>
+    <row r="591" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S591" s="8"/>
+    </row>
+    <row r="592" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S592" s="8"/>
+    </row>
+    <row r="593" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S593" s="8"/>
+    </row>
+    <row r="594" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S594" s="8"/>
+    </row>
+    <row r="595" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S595" s="8"/>
+    </row>
+    <row r="596" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S596" s="8"/>
+    </row>
+    <row r="597" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S597" s="8"/>
+    </row>
+    <row r="598" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S598" s="8"/>
+    </row>
+    <row r="599" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S599" s="8"/>
+    </row>
+    <row r="600" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S600" s="8"/>
+    </row>
+    <row r="601" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S601" s="8"/>
+    </row>
+    <row r="602" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S602" s="8"/>
+    </row>
+    <row r="603" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S603" s="8"/>
+    </row>
+    <row r="604" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S604" s="8"/>
+    </row>
+    <row r="605" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S605" s="8"/>
+    </row>
+    <row r="606" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S606" s="8"/>
+    </row>
+    <row r="607" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S607" s="8"/>
+    </row>
+    <row r="608" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S608" s="8"/>
+    </row>
+    <row r="609" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S609" s="8"/>
+    </row>
+    <row r="610" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S610" s="8"/>
+    </row>
+    <row r="611" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S611" s="8"/>
+    </row>
+    <row r="612" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S612" s="8"/>
+    </row>
+    <row r="613" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S613" s="8"/>
+    </row>
+    <row r="614" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S614" s="8"/>
+    </row>
+    <row r="615" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S615" s="8"/>
+    </row>
+    <row r="616" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S616" s="8"/>
+    </row>
+    <row r="617" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S617" s="8"/>
+    </row>
+    <row r="618" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S618" s="8"/>
+    </row>
+    <row r="619" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S619" s="8"/>
+    </row>
+    <row r="620" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S620" s="8"/>
+    </row>
+    <row r="621" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S621" s="8"/>
+    </row>
+    <row r="622" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S622" s="8"/>
+    </row>
+    <row r="623" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S623" s="8"/>
+    </row>
+    <row r="624" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S624" s="8"/>
+    </row>
+    <row r="625" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S625" s="8"/>
+    </row>
+    <row r="626" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S626" s="8"/>
+    </row>
+    <row r="627" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S627" s="8"/>
+    </row>
+    <row r="628" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S628" s="8"/>
+    </row>
+    <row r="629" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S629" s="8"/>
+    </row>
+    <row r="630" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S630" s="8"/>
+    </row>
+    <row r="631" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S631" s="8"/>
+    </row>
+    <row r="632" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S632" s="8"/>
+    </row>
+    <row r="633" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S633" s="8"/>
+    </row>
+    <row r="634" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S634" s="8"/>
+    </row>
+    <row r="635" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S635" s="8"/>
+    </row>
+    <row r="636" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S636" s="8"/>
+    </row>
+    <row r="637" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S637" s="8"/>
+    </row>
+    <row r="638" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S638" s="8"/>
+    </row>
+    <row r="639" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S639" s="8"/>
+    </row>
+    <row r="640" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S640" s="8"/>
+    </row>
+    <row r="641" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S641" s="8"/>
+    </row>
+    <row r="642" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S642" s="8"/>
+    </row>
+    <row r="643" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S643" s="8"/>
+    </row>
+    <row r="644" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S644" s="8"/>
+    </row>
+    <row r="645" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S645" s="8"/>
+    </row>
+    <row r="646" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S646" s="8"/>
+    </row>
+    <row r="647" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S647" s="8"/>
+    </row>
+    <row r="648" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S648" s="8"/>
+    </row>
+    <row r="649" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S649" s="8"/>
+    </row>
+    <row r="650" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S650" s="8"/>
+    </row>
+    <row r="651" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S651" s="8"/>
+    </row>
+    <row r="652" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S652" s="8"/>
+    </row>
+    <row r="653" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S653" s="8"/>
+    </row>
+    <row r="654" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S654" s="8"/>
+    </row>
+    <row r="655" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S655" s="8"/>
+    </row>
+    <row r="656" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S656" s="8"/>
+    </row>
+    <row r="657" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S657" s="8"/>
+    </row>
+    <row r="658" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S658" s="8"/>
+    </row>
+    <row r="659" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S659" s="8"/>
+    </row>
+    <row r="660" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S660" s="8"/>
+    </row>
+    <row r="661" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S661" s="8"/>
+    </row>
+    <row r="662" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S662" s="8"/>
+    </row>
+    <row r="663" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S663" s="8"/>
+    </row>
+    <row r="664" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S664" s="8"/>
+    </row>
+    <row r="665" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S665" s="8"/>
+    </row>
+    <row r="666" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S666" s="8"/>
+    </row>
+    <row r="667" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S667" s="8"/>
+    </row>
+    <row r="668" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S668" s="8"/>
+    </row>
+    <row r="669" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S669" s="8"/>
+    </row>
+    <row r="670" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S670" s="8"/>
+    </row>
+    <row r="671" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S671" s="8"/>
+    </row>
+    <row r="672" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S672" s="8"/>
+    </row>
+    <row r="673" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S673" s="8"/>
+    </row>
+    <row r="674" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S674" s="8"/>
+    </row>
+    <row r="675" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S675" s="8"/>
+    </row>
+    <row r="676" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S676" s="8"/>
+    </row>
+    <row r="677" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S677" s="8"/>
+    </row>
+    <row r="678" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S678" s="8"/>
+    </row>
+    <row r="679" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S679" s="8"/>
+    </row>
+    <row r="680" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S680" s="8"/>
+    </row>
+    <row r="681" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S681" s="8"/>
+    </row>
+    <row r="682" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S682" s="8"/>
+    </row>
+    <row r="683" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S683" s="8"/>
+    </row>
+    <row r="684" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S684" s="8"/>
+    </row>
+    <row r="685" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S685" s="8"/>
+    </row>
+    <row r="686" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S686" s="8"/>
+    </row>
+    <row r="687" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S687" s="8"/>
+    </row>
+    <row r="688" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S688" s="8"/>
+    </row>
+    <row r="689" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S689" s="8"/>
+    </row>
+    <row r="690" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S690" s="8"/>
+    </row>
+    <row r="691" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S691" s="8"/>
+    </row>
+    <row r="692" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S692" s="8"/>
+    </row>
+    <row r="693" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S693" s="8"/>
+    </row>
+    <row r="694" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S694" s="8"/>
+    </row>
+    <row r="695" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S695" s="8"/>
+    </row>
+    <row r="696" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S696" s="8"/>
+    </row>
+    <row r="697" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S697" s="8"/>
+    </row>
+    <row r="698" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S698" s="8"/>
+    </row>
+    <row r="699" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S699" s="8"/>
+    </row>
+    <row r="700" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S700" s="8"/>
+    </row>
+    <row r="701" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S701" s="8"/>
+    </row>
+    <row r="702" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S702" s="8"/>
+    </row>
+    <row r="703" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S703" s="8"/>
+    </row>
+    <row r="704" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S704" s="8"/>
+    </row>
+    <row r="705" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S705" s="8"/>
+    </row>
+    <row r="706" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S706" s="8"/>
+    </row>
+    <row r="707" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S707" s="8"/>
+    </row>
+    <row r="708" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S708" s="8"/>
+    </row>
+    <row r="709" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S709" s="8"/>
+    </row>
+    <row r="710" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S710" s="8"/>
+    </row>
+    <row r="711" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S711" s="8"/>
+    </row>
+    <row r="712" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S712" s="8"/>
+    </row>
+    <row r="713" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S713" s="8"/>
+    </row>
+    <row r="714" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S714" s="8"/>
+    </row>
+    <row r="715" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S715" s="8"/>
+    </row>
+    <row r="716" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S716" s="8"/>
+    </row>
+    <row r="717" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S717" s="8"/>
+    </row>
+    <row r="718" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S718" s="8"/>
+    </row>
+    <row r="719" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S719" s="8"/>
+    </row>
+    <row r="720" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S720" s="8"/>
+    </row>
+    <row r="721" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S721" s="8"/>
+    </row>
+    <row r="722" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S722" s="8"/>
+    </row>
+    <row r="723" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S723" s="8"/>
+    </row>
+    <row r="724" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S724" s="8"/>
+    </row>
+    <row r="725" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S725" s="8"/>
+    </row>
+    <row r="726" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S726" s="8"/>
+    </row>
+    <row r="727" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S727" s="8"/>
+    </row>
+    <row r="728" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S728" s="8"/>
+    </row>
+    <row r="729" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S729" s="8"/>
+    </row>
+    <row r="730" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S730" s="8"/>
+    </row>
+    <row r="731" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S731" s="8"/>
+    </row>
+    <row r="732" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S732" s="8"/>
+    </row>
+    <row r="733" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S733" s="8"/>
+    </row>
+    <row r="734" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S734" s="8"/>
+    </row>
+    <row r="735" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S735" s="8"/>
+    </row>
+    <row r="736" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S736" s="8"/>
+    </row>
+    <row r="737" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S737" s="8"/>
+    </row>
+    <row r="738" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S738" s="8"/>
+    </row>
+    <row r="739" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S739" s="8"/>
+    </row>
+    <row r="740" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S740" s="8"/>
+    </row>
+    <row r="741" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S741" s="8"/>
+    </row>
+    <row r="742" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S742" s="8"/>
+    </row>
+    <row r="743" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S743" s="8"/>
+    </row>
+    <row r="744" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S744" s="8"/>
+    </row>
+    <row r="745" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S745" s="8"/>
+    </row>
+    <row r="746" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S746" s="8"/>
+    </row>
+    <row r="747" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S747" s="8"/>
+    </row>
+    <row r="748" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S748" s="8"/>
+    </row>
+    <row r="749" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S749" s="8"/>
+    </row>
+    <row r="750" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S750" s="8"/>
+    </row>
+    <row r="751" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S751" s="8"/>
+    </row>
+    <row r="752" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S752" s="8"/>
+    </row>
+    <row r="753" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S753" s="8"/>
+    </row>
+    <row r="754" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S754" s="8"/>
+    </row>
+    <row r="755" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S755" s="8"/>
+    </row>
+    <row r="756" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S756" s="8"/>
+    </row>
+    <row r="757" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S757" s="8"/>
+    </row>
+    <row r="758" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S758" s="8"/>
+    </row>
+    <row r="759" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S759" s="8"/>
+    </row>
+    <row r="760" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S760" s="8"/>
+    </row>
+    <row r="761" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S761" s="8"/>
+    </row>
+    <row r="762" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S762" s="8"/>
+    </row>
+    <row r="763" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S763" s="8"/>
+    </row>
+    <row r="764" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S764" s="8"/>
+    </row>
+    <row r="765" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S765" s="8"/>
+    </row>
+    <row r="766" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S766" s="8"/>
+    </row>
+    <row r="767" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S767" s="8"/>
+    </row>
+    <row r="768" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S768" s="8"/>
+    </row>
+    <row r="769" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S769" s="8"/>
+    </row>
+    <row r="770" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S770" s="8"/>
+    </row>
+    <row r="771" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S771" s="8"/>
+    </row>
+    <row r="772" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S772" s="8"/>
+    </row>
+    <row r="773" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S773" s="8"/>
+    </row>
+    <row r="774" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S774" s="8"/>
+    </row>
+    <row r="775" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S775" s="8"/>
+    </row>
+    <row r="776" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S776" s="8"/>
+    </row>
+    <row r="777" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S777" s="8"/>
+    </row>
+    <row r="778" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S778" s="8"/>
+    </row>
+    <row r="779" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S779" s="8"/>
+    </row>
+    <row r="780" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S780" s="8"/>
+    </row>
+    <row r="781" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S781" s="8"/>
+    </row>
+    <row r="782" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S782" s="8"/>
+    </row>
+    <row r="783" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S783" s="8"/>
+    </row>
+    <row r="784" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S784" s="8"/>
+    </row>
+    <row r="785" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S785" s="8"/>
+    </row>
+    <row r="786" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S786" s="8"/>
+    </row>
+    <row r="787" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S787" s="8"/>
+    </row>
+    <row r="788" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S788" s="8"/>
+    </row>
+    <row r="789" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S789" s="8"/>
+    </row>
+    <row r="790" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S790" s="8"/>
+    </row>
+    <row r="791" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S791" s="8"/>
+    </row>
+    <row r="792" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S792" s="8"/>
+    </row>
+    <row r="793" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S793" s="8"/>
+    </row>
+    <row r="794" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S794" s="8"/>
+    </row>
+    <row r="795" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S795" s="8"/>
+    </row>
+    <row r="796" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S796" s="8"/>
+    </row>
+    <row r="797" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S797" s="8"/>
+    </row>
+    <row r="798" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S798" s="8"/>
+    </row>
+    <row r="799" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S799" s="8"/>
+    </row>
+    <row r="800" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S800" s="8"/>
+    </row>
+    <row r="801" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S801" s="8"/>
+    </row>
+    <row r="802" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S802" s="8"/>
+    </row>
+    <row r="803" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S803" s="8"/>
+    </row>
+    <row r="804" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S804" s="8"/>
+    </row>
+    <row r="805" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S805" s="8"/>
+    </row>
+    <row r="806" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S806" s="8"/>
+    </row>
+    <row r="807" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S807" s="8"/>
+    </row>
+    <row r="808" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S808" s="8"/>
+    </row>
+    <row r="809" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S809" s="8"/>
+    </row>
+    <row r="810" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S810" s="8"/>
+    </row>
+    <row r="811" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S811" s="8"/>
+    </row>
+    <row r="812" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S812" s="8"/>
+    </row>
+    <row r="813" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S813" s="8"/>
+    </row>
+    <row r="814" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S814" s="8"/>
+    </row>
+    <row r="815" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S815" s="8"/>
+    </row>
+    <row r="816" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S816" s="8"/>
+    </row>
+    <row r="817" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S817" s="8"/>
+    </row>
+    <row r="818" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S818" s="8"/>
+    </row>
+    <row r="819" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S819" s="8"/>
+    </row>
+    <row r="820" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S820" s="8"/>
+    </row>
+    <row r="821" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S821" s="8"/>
+    </row>
+    <row r="822" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S822" s="8"/>
+    </row>
+    <row r="823" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S823" s="8"/>
+    </row>
+    <row r="824" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S824" s="8"/>
+    </row>
+    <row r="825" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S825" s="8"/>
+    </row>
+    <row r="826" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S826" s="8"/>
+    </row>
+    <row r="827" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S827" s="8"/>
+    </row>
+    <row r="828" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S828" s="8"/>
+    </row>
+    <row r="829" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S829" s="8"/>
+    </row>
+    <row r="830" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S830" s="8"/>
+    </row>
+    <row r="831" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S831" s="8"/>
+    </row>
+    <row r="832" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S832" s="8"/>
+    </row>
+    <row r="833" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S833" s="8"/>
+    </row>
+    <row r="834" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S834" s="8"/>
+    </row>
+    <row r="835" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S835" s="8"/>
+    </row>
+    <row r="836" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S836" s="8"/>
+    </row>
+    <row r="837" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S837" s="8"/>
+    </row>
+    <row r="838" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S838" s="8"/>
+    </row>
+    <row r="839" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S839" s="8"/>
+    </row>
+    <row r="840" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S840" s="8"/>
+    </row>
+    <row r="841" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S841" s="8"/>
+    </row>
+    <row r="842" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S842" s="8"/>
+    </row>
+    <row r="843" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S843" s="8"/>
+    </row>
+    <row r="844" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S844" s="8"/>
+    </row>
+    <row r="845" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S845" s="8"/>
+    </row>
+    <row r="846" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S846" s="8"/>
+    </row>
+    <row r="847" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S847" s="8"/>
+    </row>
+    <row r="848" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S848" s="8"/>
+    </row>
+    <row r="849" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S849" s="8"/>
+    </row>
+    <row r="850" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S850" s="8"/>
+    </row>
+    <row r="851" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S851" s="8"/>
+    </row>
+    <row r="852" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S852" s="8"/>
+    </row>
+    <row r="853" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S853" s="8"/>
+    </row>
+    <row r="854" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S854" s="8"/>
+    </row>
+    <row r="855" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S855" s="8"/>
+    </row>
+    <row r="856" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S856" s="8"/>
+    </row>
+    <row r="857" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S857" s="8"/>
+    </row>
+    <row r="858" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S858" s="8"/>
+    </row>
+    <row r="859" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S859" s="8"/>
+    </row>
+    <row r="860" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S860" s="8"/>
+    </row>
+    <row r="861" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S861" s="8"/>
+    </row>
+    <row r="862" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S862" s="8"/>
+    </row>
+    <row r="863" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S863" s="8"/>
+    </row>
+    <row r="864" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S864" s="8"/>
+    </row>
+    <row r="865" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S865" s="8"/>
+    </row>
+    <row r="866" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S866" s="8"/>
+    </row>
+    <row r="867" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S867" s="8"/>
+    </row>
+    <row r="868" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S868" s="8"/>
+    </row>
+    <row r="869" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S869" s="8"/>
+    </row>
+    <row r="870" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S870" s="8"/>
+    </row>
+    <row r="871" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S871" s="8"/>
+    </row>
+    <row r="872" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S872" s="8"/>
+    </row>
+    <row r="873" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S873" s="8"/>
+    </row>
+    <row r="874" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S874" s="8"/>
+    </row>
+    <row r="875" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S875" s="8"/>
+    </row>
+    <row r="876" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S876" s="8"/>
+    </row>
+    <row r="877" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S877" s="8"/>
+    </row>
+    <row r="878" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S878" s="8"/>
+    </row>
+    <row r="879" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S879" s="8"/>
+    </row>
+    <row r="880" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S880" s="8"/>
+    </row>
+    <row r="881" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S881" s="8"/>
+    </row>
+    <row r="882" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S882" s="8"/>
+    </row>
+    <row r="883" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S883" s="8"/>
+    </row>
+    <row r="884" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S884" s="8"/>
+    </row>
+    <row r="885" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S885" s="8"/>
+    </row>
+    <row r="886" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S886" s="8"/>
+    </row>
+    <row r="887" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S887" s="8"/>
+    </row>
+    <row r="888" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S888" s="8"/>
+    </row>
+    <row r="889" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S889" s="8"/>
+    </row>
+    <row r="890" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S890" s="8"/>
+    </row>
+    <row r="891" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S891" s="8"/>
+    </row>
+    <row r="892" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S892" s="8"/>
+    </row>
+    <row r="893" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S893" s="8"/>
+    </row>
+    <row r="894" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S894" s="8"/>
+    </row>
+    <row r="895" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S895" s="8"/>
+    </row>
+    <row r="896" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S896" s="8"/>
+    </row>
+    <row r="897" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S897" s="8"/>
+    </row>
+    <row r="898" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S898" s="8"/>
+    </row>
+    <row r="899" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S899" s="8"/>
+    </row>
+    <row r="900" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S900" s="8"/>
+    </row>
+    <row r="901" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S901" s="8"/>
+    </row>
+    <row r="902" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S902" s="8"/>
+    </row>
+    <row r="903" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S903" s="8"/>
+    </row>
+    <row r="904" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S904" s="8"/>
+    </row>
+    <row r="905" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S905" s="8"/>
+    </row>
+    <row r="906" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S906" s="8"/>
+    </row>
+    <row r="907" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S907" s="8"/>
+    </row>
+    <row r="908" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S908" s="8"/>
+    </row>
+    <row r="909" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S909" s="8"/>
+    </row>
+    <row r="910" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S910" s="8"/>
+    </row>
+    <row r="911" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S911" s="8"/>
+    </row>
+    <row r="912" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S912" s="8"/>
+    </row>
+    <row r="913" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S913" s="8"/>
+    </row>
+    <row r="914" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S914" s="8"/>
+    </row>
+    <row r="915" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S915" s="8"/>
+    </row>
+    <row r="916" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S916" s="8"/>
+    </row>
+    <row r="917" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S917" s="8"/>
+    </row>
+    <row r="918" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S918" s="8"/>
+    </row>
+    <row r="919" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S919" s="8"/>
+    </row>
+    <row r="920" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S920" s="8"/>
+    </row>
+    <row r="921" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S921" s="8"/>
+    </row>
+    <row r="922" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S922" s="8"/>
+    </row>
+    <row r="923" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S923" s="8"/>
+    </row>
+    <row r="924" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S924" s="8"/>
+    </row>
+    <row r="925" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S925" s="8"/>
+    </row>
+    <row r="926" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S926" s="8"/>
+    </row>
+    <row r="927" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S927" s="8"/>
+    </row>
+    <row r="928" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S928" s="8"/>
+    </row>
+    <row r="929" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S929" s="8"/>
+    </row>
+    <row r="930" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S930" s="8"/>
+    </row>
+    <row r="931" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S931" s="8"/>
+    </row>
+    <row r="932" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S932" s="8"/>
+    </row>
+    <row r="933" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S933" s="8"/>
+    </row>
+    <row r="934" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S934" s="8"/>
+    </row>
+    <row r="935" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S935" s="8"/>
+    </row>
+    <row r="936" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S936" s="8"/>
+    </row>
+    <row r="937" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S937" s="8"/>
+    </row>
+    <row r="938" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S938" s="8"/>
+    </row>
+    <row r="939" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S939" s="8"/>
+    </row>
+    <row r="940" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S940" s="8"/>
+    </row>
+    <row r="941" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S941" s="8"/>
+    </row>
+    <row r="942" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S942" s="8"/>
+    </row>
+    <row r="943" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S943" s="8"/>
+    </row>
+    <row r="944" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S944" s="8"/>
+    </row>
+    <row r="945" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S945" s="8"/>
+    </row>
+    <row r="946" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S946" s="8"/>
+    </row>
+    <row r="947" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S947" s="8"/>
+    </row>
+    <row r="948" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S948" s="8"/>
+    </row>
+    <row r="949" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S949" s="8"/>
+    </row>
+    <row r="950" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S950" s="8"/>
+    </row>
+    <row r="951" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S951" s="8"/>
+    </row>
+    <row r="952" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S952" s="8"/>
+    </row>
+    <row r="953" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S953" s="8"/>
+    </row>
+    <row r="954" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S954" s="8"/>
+    </row>
+    <row r="955" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S955" s="8"/>
+    </row>
+    <row r="956" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S956" s="8"/>
+    </row>
+    <row r="957" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S957" s="8"/>
+    </row>
+    <row r="958" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S958" s="8"/>
+    </row>
+    <row r="959" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S959" s="8"/>
+    </row>
+    <row r="960" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S960" s="8"/>
+    </row>
+    <row r="961" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S961" s="8"/>
+    </row>
+    <row r="962" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S962" s="8"/>
+    </row>
+    <row r="963" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S963" s="8"/>
+    </row>
+    <row r="964" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S964" s="8"/>
+    </row>
+    <row r="965" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S965" s="8"/>
+    </row>
+    <row r="966" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S966" s="8"/>
+    </row>
+    <row r="967" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S967" s="8"/>
+    </row>
+    <row r="968" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S968" s="8"/>
+    </row>
+    <row r="969" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S969" s="8"/>
+    </row>
+    <row r="970" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S970" s="8"/>
+    </row>
+    <row r="971" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S971" s="8"/>
+    </row>
+    <row r="972" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S972" s="8"/>
+    </row>
+    <row r="973" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S973" s="8"/>
+    </row>
+    <row r="974" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S974" s="8"/>
+    </row>
+    <row r="975" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S975" s="8"/>
+    </row>
+    <row r="976" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S976" s="8"/>
+    </row>
+    <row r="977" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S977" s="8"/>
+    </row>
+    <row r="978" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S978" s="8"/>
+    </row>
+    <row r="979" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S979" s="8"/>
+    </row>
+    <row r="980" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S980" s="8"/>
+    </row>
+    <row r="981" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S981" s="8"/>
+    </row>
+    <row r="982" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S982" s="8"/>
+    </row>
+    <row r="983" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S983" s="8"/>
+    </row>
+    <row r="984" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S984" s="8"/>
+    </row>
+    <row r="985" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S985" s="8"/>
+    </row>
+    <row r="986" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S986" s="8"/>
+    </row>
+    <row r="987" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S987" s="8"/>
+    </row>
+    <row r="988" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S988" s="8"/>
+    </row>
+    <row r="989" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S989" s="8"/>
+    </row>
+    <row r="990" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S990" s="8"/>
+    </row>
+    <row r="991" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S991" s="8"/>
+    </row>
+    <row r="992" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S992" s="8"/>
+    </row>
+    <row r="993" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S993" s="8"/>
+    </row>
+    <row r="994" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S994" s="8"/>
+    </row>
+    <row r="995" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S995" s="8"/>
+    </row>
+    <row r="996" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S996" s="8"/>
+    </row>
+    <row r="997" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S997" s="8"/>
+    </row>
+    <row r="998" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S998" s="8"/>
+    </row>
+    <row r="999" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S999" s="8"/>
+    </row>
+    <row r="1000" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S1000" s="8"/>
+    </row>
+    <row r="1001" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S1001" s="8"/>
+    </row>
+    <row r="1002" spans="19:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S1002" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docassemble/mlhframework/data/sources/michigan_court_info.xlsx
+++ b/docassemble/mlhframework/data/sources/michigan_court_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miadvocacyprog-my.sharepoint.com/personal/ekressmiller_lsscm_org/Documents/Attachments/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{BEB18A39-4C30-40FE-B119-921DDEE9DD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{794B3396-21CC-47BB-8216-6F3FC0CBA174}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{BEB18A39-4C30-40FE-B119-921DDEE9DD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB8E1C3A-C7B4-4E91-91E7-2EF15B32EB52}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5363,10 +5363,10 @@
     <t>Domestic</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>alternative_label</t>
+  </si>
+  <si>
+    <t>General</t>
   </si>
 </sst>
 </file>
@@ -5509,10 +5509,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5719,8 +5715,8 @@
   <dimension ref="A1:AD1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R4" sqref="R4"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T73" sqref="T73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5796,7 +5792,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -8623,7 +8619,7 @@
       </c>
       <c r="O72" s="3"/>
       <c r="S72" s="8" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">

--- a/docassemble/mlhframework/data/sources/michigan_court_info.xlsx
+++ b/docassemble/mlhframework/data/sources/michigan_court_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miadvocacyprog-my.sharepoint.com/personal/ekressmiller_lsscm_org/Documents/Attachments/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{BEB18A39-4C30-40FE-B119-921DDEE9DD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB8E1C3A-C7B4-4E91-91E7-2EF15B32EB52}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{BEB18A39-4C30-40FE-B119-921DDEE9DD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBA6AE81-49A7-4CED-AFEB-873F3767A576}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5360,13 +5360,13 @@
     <t>West Olive, MI  49460</t>
   </si>
   <si>
-    <t>Domestic</t>
-  </si>
-  <si>
     <t>alternative_label</t>
   </si>
   <si>
-    <t>General</t>
+    <t>Domestic (for example: divorce, custody, child support)</t>
+  </si>
+  <si>
+    <t>General (for example: PPO, name change, foreclosure)</t>
   </si>
 </sst>
 </file>
@@ -5478,7 +5478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5493,6 +5493,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5716,7 +5719,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T73" sqref="T73"/>
+      <selection pane="bottomLeft" activeCell="S71" sqref="S71:S72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5792,7 +5795,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -8574,8 +8577,8 @@
         <v>49460</v>
       </c>
       <c r="O71" s="3"/>
-      <c r="S71" s="8" t="s">
-        <v>1705</v>
+      <c r="S71" s="9" t="s">
+        <v>1706</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
@@ -8618,7 +8621,7 @@
         <v>49417</v>
       </c>
       <c r="O72" s="3"/>
-      <c r="S72" s="8" t="s">
+      <c r="S72" s="9" t="s">
         <v>1707</v>
       </c>
     </row>
